--- a/dataanalysis/alert/0711.xlsx
+++ b/dataanalysis/alert/0711.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="14605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="199">
   <si>
     <t>序号</t>
   </si>
@@ -122,7 +122,7 @@
     <t>仪器仪表</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>互金+稀土</t>
   </si>
   <si>
     <t>是</t>
@@ -188,6 +188,9 @@
     <t>仟源医药</t>
   </si>
   <si>
+    <t>医药</t>
+  </si>
+  <si>
     <t>联建光电</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
     <t>汇中股份</t>
   </si>
   <si>
+    <t>预增+超声测流</t>
+  </si>
+  <si>
     <t>天利科技</t>
   </si>
   <si>
@@ -245,6 +251,9 @@
     <t>其他专用设备</t>
   </si>
   <si>
+    <t>氢能源</t>
+  </si>
+  <si>
     <t>赛升药业</t>
   </si>
   <si>
@@ -293,6 +302,9 @@
     <t>网络接配及塔设</t>
   </si>
   <si>
+    <t>铜缆</t>
+  </si>
+  <si>
     <t>晨曦航空</t>
   </si>
   <si>
@@ -332,9 +344,6 @@
     <t>铜</t>
   </si>
   <si>
-    <t>铜缆</t>
-  </si>
-  <si>
     <t>岱勒新材</t>
   </si>
   <si>
@@ -350,6 +359,9 @@
     <t>文化用品</t>
   </si>
   <si>
+    <t>IP</t>
+  </si>
+  <si>
     <t>金力永磁</t>
   </si>
   <si>
@@ -407,6 +419,9 @@
     <t>其他金属新材料</t>
   </si>
   <si>
+    <t>稀土+小金属</t>
+  </si>
+  <si>
     <t>德必集团</t>
   </si>
   <si>
@@ -431,6 +446,9 @@
     <t>文字图片媒体</t>
   </si>
   <si>
+    <t>传媒</t>
+  </si>
+  <si>
     <t>创益通</t>
   </si>
   <si>
@@ -464,6 +482,9 @@
     <t>锐捷网络</t>
   </si>
   <si>
+    <t>通讯+蚂蚁金服</t>
+  </si>
+  <si>
     <t>逸豪新材</t>
   </si>
   <si>
@@ -588,9 +609,6 @@
   </si>
   <si>
     <t>微芯生物</t>
-  </si>
-  <si>
-    <t>医药</t>
   </si>
   <si>
     <t>汇宇制药-W</t>
@@ -619,7 +637,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +686,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDE322C"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1158,16 +1182,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1176,119 +1197,122 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1307,17 +1331,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1326,11 +1353,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1887,18 +1920,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T84"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:W84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="14" max="15" width="11.5"/>
+    <col min="14" max="15" width="11.5045045045045"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:20">
+    <row r="1" ht="24.85" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +1993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:23">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1982,13 +2015,19 @@
       <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
+      <c r="H2" s="4">
+        <v>-0.11</v>
+      </c>
+      <c r="I2" s="4">
+        <v>9.45</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2.27</v>
+      </c>
       <c r="K2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="4">
         <v>15</v>
       </c>
@@ -2004,18 +2043,26 @@
       <c r="Q2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="12"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="R2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="13">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
+        <v>2.95</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2037,13 +2084,19 @@
       <c r="G3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8"/>
+      <c r="H3" s="4">
+        <v>2.05</v>
+      </c>
+      <c r="I3" s="4">
+        <v>23.33</v>
+      </c>
+      <c r="J3" s="8">
+        <v>3.83</v>
+      </c>
       <c r="K3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="4">
         <v>3</v>
       </c>
@@ -2059,18 +2112,26 @@
       <c r="Q3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="12"/>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="R3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="13">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2092,13 +2153,19 @@
       <c r="G4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8"/>
+      <c r="H4" s="4">
+        <v>-3.69</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4.84</v>
+      </c>
+      <c r="J4" s="8">
+        <v>-0.82</v>
+      </c>
       <c r="K4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="4">
         <v>5</v>
       </c>
@@ -2114,18 +2181,26 @@
       <c r="Q4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="12"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="R4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <v>6.13</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2147,13 +2222,19 @@
       <c r="G5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
+      <c r="H5" s="4">
+        <v>15.27</v>
+      </c>
+      <c r="I5" s="4">
+        <v>6.59</v>
+      </c>
+      <c r="J5" s="8">
+        <v>19.82</v>
+      </c>
       <c r="K5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="4">
         <v>1</v>
       </c>
@@ -2163,24 +2244,32 @@
       <c r="O5" s="4">
         <v>199791394</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="11">
         <v>2.23</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" s="12"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="S5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="13">
+        <v>0</v>
+      </c>
+      <c r="V5" s="14">
+        <v>9.46</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2202,13 +2291,19 @@
       <c r="G6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
+      <c r="H6" s="4">
+        <v>-3.95</v>
+      </c>
+      <c r="I6" s="4">
+        <v>31.54</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2.1</v>
+      </c>
       <c r="K6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="4">
         <v>4</v>
       </c>
@@ -2224,18 +2319,26 @@
       <c r="Q6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="12"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="R6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U6" s="13">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14">
+        <v>1.07</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2257,13 +2360,19 @@
       <c r="G7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
+      <c r="H7" s="4">
+        <v>-2.63</v>
+      </c>
+      <c r="I7" s="4">
+        <v>33.51</v>
+      </c>
+      <c r="J7" s="8">
+        <v>-0.98</v>
+      </c>
       <c r="K7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="4">
         <v>19</v>
       </c>
@@ -2279,18 +2388,26 @@
       <c r="Q7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" s="12"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="R7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="13">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14">
+        <v>5.02</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2312,13 +2429,19 @@
       <c r="G8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
+      <c r="H8" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1.29</v>
+      </c>
       <c r="K8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="4">
         <v>8</v>
       </c>
@@ -2334,18 +2457,26 @@
       <c r="Q8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="12"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="R8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14">
+        <v>3.57</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2367,13 +2498,19 @@
       <c r="G9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10.17</v>
+      </c>
+      <c r="J9" s="8">
+        <v>3.67</v>
+      </c>
       <c r="K9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="4">
         <v>18</v>
       </c>
@@ -2383,24 +2520,32 @@
       <c r="O9" s="4">
         <v>222897980</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="11">
         <v>1.11</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U9" s="12"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="R9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="13">
+        <v>0</v>
+      </c>
+      <c r="V9" s="14">
+        <v>4.85</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2422,13 +2567,19 @@
       <c r="G10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
+      <c r="H10" s="4">
+        <v>-0.76</v>
+      </c>
+      <c r="I10" s="4">
+        <v>14.58</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1.32</v>
+      </c>
       <c r="K10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="4">
         <v>8</v>
       </c>
@@ -2444,18 +2595,26 @@
       <c r="Q10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U10" s="12"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="R10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U10" s="13">
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
+        <v>1.32</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2477,13 +2636,19 @@
       <c r="G11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="8"/>
+      <c r="H11" s="4">
+        <v>2.05</v>
+      </c>
+      <c r="I11" s="4">
+        <v>19.1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>3.19</v>
+      </c>
       <c r="K11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="4">
         <v>8</v>
       </c>
@@ -2499,18 +2664,26 @@
       <c r="Q11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U11" s="12"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="R11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0</v>
+      </c>
+      <c r="V11" s="14">
+        <v>1.41</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2532,13 +2705,19 @@
       <c r="G12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="8"/>
+      <c r="H12" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="I12" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2.56</v>
+      </c>
       <c r="K12" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="4">
         <v>4</v>
       </c>
@@ -2554,18 +2733,26 @@
       <c r="Q12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12" s="12"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="R12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" s="13">
+        <v>0</v>
+      </c>
+      <c r="V12" s="14">
+        <v>1.59</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2587,13 +2774,19 @@
       <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
+      <c r="H13" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="I13" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="J13" s="8">
+        <v>4.46</v>
+      </c>
       <c r="K13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="L13" s="10"/>
       <c r="M13" s="4">
         <v>2</v>
       </c>
@@ -2609,18 +2802,26 @@
       <c r="Q13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" s="12"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="R13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U13" s="16">
+        <v>1</v>
+      </c>
+      <c r="V13" s="14">
+        <v>6.71</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2631,7 +2832,7 @@
         <v>300269</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4">
         <v>-1.09</v>
@@ -2640,15 +2841,21 @@
         <v>5.42</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-1.48</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5.45</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.55</v>
+      </c>
       <c r="K14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="L14" s="10"/>
       <c r="M14" s="4">
         <v>10</v>
       </c>
@@ -2664,18 +2871,26 @@
       <c r="Q14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U14" s="12"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="R14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" s="13">
+        <v>0</v>
+      </c>
+      <c r="V14" s="14">
+        <v>2.77</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2686,7 +2901,7 @@
         <v>300335</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="4">
         <v>0.16</v>
@@ -2695,15 +2910,21 @@
         <v>6.25</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="I15" s="4">
+        <v>6.36</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1.76</v>
+      </c>
       <c r="K15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="L15" s="10"/>
       <c r="M15" s="4">
         <v>5</v>
       </c>
@@ -2719,18 +2940,26 @@
       <c r="Q15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U15" s="12"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="R15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="14">
+        <v>7.08</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2741,7 +2970,7 @@
         <v>300348</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4">
         <v>7.03</v>
@@ -2750,15 +2979,21 @@
         <v>20.87</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-8.67</v>
+      </c>
+      <c r="I16" s="4">
+        <v>21.46</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2.83</v>
+      </c>
       <c r="K16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="L16" s="10"/>
       <c r="M16" s="4">
         <v>4</v>
       </c>
@@ -2768,24 +3003,32 @@
       <c r="O16" s="4">
         <v>468043270</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="11">
         <v>1.91</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U16" s="12"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="R16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U16" s="13">
+        <v>0</v>
+      </c>
+      <c r="V16" s="14">
+        <v>-0.56</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2796,7 +3039,7 @@
         <v>300371</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17" s="4">
         <v>-7.85</v>
@@ -2807,13 +3050,19 @@
       <c r="G17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="8"/>
+      <c r="H17" s="4">
+        <v>3.84</v>
+      </c>
+      <c r="I17" s="4">
+        <v>13.88</v>
+      </c>
+      <c r="J17" s="8">
+        <v>4.6</v>
+      </c>
       <c r="K17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="L17" s="10"/>
       <c r="M17" s="4">
         <v>1</v>
       </c>
@@ -2829,18 +3078,26 @@
       <c r="Q17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U17" s="12"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="R17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U17" s="13">
+        <v>0</v>
+      </c>
+      <c r="V17" s="14">
+        <v>0.66</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2851,7 +3108,7 @@
         <v>300399</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18" s="4">
         <v>5.59</v>
@@ -2860,15 +3117,21 @@
         <v>34.2</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-2.66</v>
+      </c>
+      <c r="I18" s="4">
+        <v>35.06</v>
+      </c>
+      <c r="J18" s="8">
+        <v>2.51</v>
+      </c>
       <c r="K18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="4">
         <v>1</v>
       </c>
@@ -2878,24 +3141,32 @@
       <c r="O18" s="4">
         <v>82728353</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="11">
         <v>1.48</v>
       </c>
       <c r="Q18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18" s="12"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="S18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" s="13">
+        <v>0</v>
+      </c>
+      <c r="V18" s="14">
+        <v>-1.05</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2906,7 +3177,7 @@
         <v>300410</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4">
         <v>3.42</v>
@@ -2915,15 +3186,21 @@
         <v>7.86</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="I19" s="4">
+        <v>8.25</v>
+      </c>
+      <c r="J19" s="8">
+        <v>4.96</v>
+      </c>
       <c r="K19" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="L19" s="10"/>
       <c r="M19" s="4">
         <v>1</v>
       </c>
@@ -2933,24 +3210,32 @@
       <c r="O19" s="4">
         <v>20214399</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="11">
         <v>0.9</v>
       </c>
       <c r="Q19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U19" s="12"/>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="S19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U19" s="13">
+        <v>0</v>
+      </c>
+      <c r="V19" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2961,7 +3246,7 @@
         <v>300436</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4">
         <v>7.27</v>
@@ -2972,13 +3257,19 @@
       <c r="G20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="8"/>
+      <c r="H20" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="I20" s="4">
+        <v>66.55</v>
+      </c>
+      <c r="J20" s="8">
+        <v>7.34</v>
+      </c>
       <c r="K20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="L20" s="10"/>
       <c r="M20" s="4">
         <v>7</v>
       </c>
@@ -2988,24 +3279,32 @@
       <c r="O20" s="4">
         <v>-43961680</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="11">
         <v>0.96</v>
       </c>
       <c r="Q20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U20" s="12"/>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="R20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="16">
+        <v>1</v>
+      </c>
+      <c r="V20" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3016,7 +3315,7 @@
         <v>300468</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="4">
         <v>2.15</v>
@@ -3025,15 +3324,21 @@
         <v>45.09</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-3.44</v>
+      </c>
+      <c r="I21" s="4">
+        <v>45.54</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1</v>
+      </c>
       <c r="K21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="4">
         <v>28</v>
       </c>
@@ -3049,18 +3354,26 @@
       <c r="Q21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U21" s="12"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="R21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" s="16">
+        <v>1</v>
+      </c>
+      <c r="V21" s="14">
+        <v>8.72</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3071,7 +3384,7 @@
         <v>300471</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" s="4">
         <v>3.14</v>
@@ -3080,15 +3393,21 @@
         <v>12.83</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-5.85</v>
+      </c>
+      <c r="I22" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="J22" s="8">
+        <v>-3.35</v>
+      </c>
       <c r="K22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="L22" s="10"/>
       <c r="M22" s="4">
         <v>2</v>
       </c>
@@ -3104,18 +3423,26 @@
       <c r="Q22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U22" s="12"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="R22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U22" s="13">
+        <v>0</v>
+      </c>
+      <c r="V22" s="14">
+        <v>2.91</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3126,7 +3453,7 @@
         <v>300485</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E23" s="4">
         <v>-2.37</v>
@@ -3135,15 +3462,21 @@
         <v>13.61</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="I23" s="4">
+        <v>13.94</v>
+      </c>
+      <c r="J23" s="8">
+        <v>2.42</v>
+      </c>
       <c r="K23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="4">
         <v>24</v>
       </c>
@@ -3159,18 +3492,26 @@
       <c r="Q23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U23" s="12"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="R23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U23" s="16">
+        <v>1</v>
+      </c>
+      <c r="V23" s="14">
+        <v>6.05</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3181,7 +3522,7 @@
         <v>300505</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E24" s="4">
         <v>0.15</v>
@@ -3190,15 +3531,21 @@
         <v>19.98</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="H24" s="4">
+        <v>-0.35</v>
+      </c>
+      <c r="I24" s="4">
+        <v>20</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.1</v>
+      </c>
       <c r="K24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="L24" s="6"/>
+        <v>79</v>
+      </c>
+      <c r="L24" s="10"/>
       <c r="M24" s="4">
         <v>3</v>
       </c>
@@ -3214,18 +3561,26 @@
       <c r="Q24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U24" s="12"/>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="R24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U24" s="13">
+        <v>0</v>
+      </c>
+      <c r="V24" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3236,7 +3591,7 @@
         <v>300527</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E25" s="4">
         <v>2.25</v>
@@ -3245,15 +3600,21 @@
         <v>11.35</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="I25" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="J25" s="8">
+        <v>4.85</v>
+      </c>
       <c r="K25" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L25" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="L25" s="10"/>
       <c r="M25" s="4">
         <v>9</v>
       </c>
@@ -3269,18 +3630,26 @@
       <c r="Q25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U25" s="12"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="R25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0</v>
+      </c>
+      <c r="V25" s="14">
+        <v>1.79</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3291,7 +3660,7 @@
         <v>300531</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E26" s="4">
         <v>0.7</v>
@@ -3302,13 +3671,19 @@
       <c r="G26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="8"/>
+      <c r="H26" s="4">
+        <v>-2.8</v>
+      </c>
+      <c r="I26" s="4">
+        <v>21.35</v>
+      </c>
+      <c r="J26" s="8">
+        <v>-0.42</v>
+      </c>
       <c r="K26" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="4">
         <v>18</v>
       </c>
@@ -3324,18 +3699,26 @@
       <c r="Q26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U26" s="12"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="R26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U26" s="13">
+        <v>0</v>
+      </c>
+      <c r="V26" s="14">
+        <v>2.33</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3346,7 +3729,7 @@
         <v>300533</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E27" s="4">
         <v>-2.72</v>
@@ -3357,13 +3740,19 @@
       <c r="G27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="8"/>
+      <c r="H27" s="4">
+        <v>-1.17</v>
+      </c>
+      <c r="I27" s="4">
+        <v>37.98</v>
+      </c>
+      <c r="J27" s="8">
+        <v>1.15</v>
+      </c>
       <c r="K27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="6"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="4">
         <v>13</v>
       </c>
@@ -3379,18 +3768,26 @@
       <c r="Q27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U27" s="12"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="R27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0</v>
+      </c>
+      <c r="V27" s="14">
+        <v>2.29</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3401,7 +3798,7 @@
         <v>300537</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E28" s="4">
         <v>-4.51</v>
@@ -3410,15 +3807,21 @@
         <v>27.98</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-7.15</v>
+      </c>
+      <c r="I28" s="4">
+        <v>27.33</v>
+      </c>
+      <c r="J28" s="8">
+        <v>-2.32</v>
+      </c>
       <c r="K28" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L28" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="L28" s="10"/>
       <c r="M28" s="4">
         <v>10</v>
       </c>
@@ -3434,18 +3837,26 @@
       <c r="Q28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U28" s="12"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="R28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U28" s="13">
+        <v>0</v>
+      </c>
+      <c r="V28" s="14">
+        <v>5.07</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3456,7 +3867,7 @@
         <v>300541</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E29" s="4">
         <v>3.74</v>
@@ -3465,15 +3876,21 @@
         <v>16.94</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="H29" s="4">
+        <v>-3.36</v>
+      </c>
+      <c r="I29" s="4">
+        <v>16.88</v>
+      </c>
+      <c r="J29" s="8">
+        <v>-0.35</v>
+      </c>
       <c r="K29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="6"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="4">
         <v>1</v>
       </c>
@@ -3483,24 +3900,32 @@
       <c r="O29" s="4">
         <v>64584289</v>
       </c>
-      <c r="P29" s="10">
+      <c r="P29" s="11">
         <v>0.34</v>
       </c>
       <c r="Q29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R29" s="13" t="s">
+      <c r="R29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U29" s="12"/>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="S29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U29" s="13">
+        <v>0</v>
+      </c>
+      <c r="V29" s="14">
+        <v>2.51</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3511,7 +3936,7 @@
         <v>300548</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E30" s="4">
         <v>1.63</v>
@@ -3520,15 +3945,21 @@
         <v>76.22</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="H30" s="4">
+        <v>-1.27</v>
+      </c>
+      <c r="I30" s="4">
+        <v>77.41</v>
+      </c>
+      <c r="J30" s="8">
+        <v>1.56</v>
+      </c>
       <c r="K30" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="L30" s="10"/>
       <c r="M30" s="4">
         <v>1</v>
       </c>
@@ -3544,18 +3975,26 @@
       <c r="Q30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U30" s="12"/>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="R30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U30" s="13">
+        <v>0</v>
+      </c>
+      <c r="V30" s="14">
+        <v>4.78</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3566,7 +4005,7 @@
         <v>300581</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E31" s="4">
         <v>3.93</v>
@@ -3575,15 +4014,21 @@
         <v>20.36</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="8"/>
+        <v>93</v>
+      </c>
+      <c r="H31" s="4">
+        <v>-6.24</v>
+      </c>
+      <c r="I31" s="4">
+        <v>19.74</v>
+      </c>
+      <c r="J31" s="8">
+        <v>-3.05</v>
+      </c>
       <c r="K31" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="L31" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="L31" s="10"/>
       <c r="M31" s="4">
         <v>19</v>
       </c>
@@ -3599,18 +4044,26 @@
       <c r="Q31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U31" s="12"/>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="R31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U31" s="13">
+        <v>0</v>
+      </c>
+      <c r="V31" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3621,7 +4074,7 @@
         <v>300591</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E32" s="4">
         <v>-5.13</v>
@@ -3630,15 +4083,21 @@
         <v>11.29</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2.57</v>
+      </c>
+      <c r="I32" s="4">
+        <v>11.96</v>
+      </c>
+      <c r="J32" s="8">
+        <v>5.93</v>
+      </c>
       <c r="K32" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="L32" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="L32" s="10"/>
       <c r="M32" s="4">
         <v>14</v>
       </c>
@@ -3654,18 +4113,26 @@
       <c r="Q32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U32" s="12"/>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="R32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U32" s="13">
+        <v>0</v>
+      </c>
+      <c r="V32" s="14">
+        <v>3.41</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3676,7 +4143,7 @@
         <v>300600</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E33" s="4">
         <v>20.01</v>
@@ -3685,15 +4152,21 @@
         <v>16.73</v>
       </c>
       <c r="G33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="4">
+        <v>-2.75</v>
+      </c>
+      <c r="I33" s="4">
+        <v>17.65</v>
+      </c>
+      <c r="J33" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="K33" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="L33" s="6"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="4">
         <v>11</v>
       </c>
@@ -3703,24 +4176,32 @@
       <c r="O33" s="4">
         <v>236686602</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="11">
         <v>6.97</v>
       </c>
       <c r="Q33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R33" s="13" t="s">
+      <c r="R33" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U33" s="12"/>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="S33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T33" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33" s="16">
+        <v>1</v>
+      </c>
+      <c r="V33" s="14">
+        <v>14.42</v>
+      </c>
+      <c r="W33" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3731,7 +4212,7 @@
         <v>300645</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E34" s="4">
         <v>1.18</v>
@@ -3740,15 +4221,21 @@
         <v>20.61</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="H34" s="4">
+        <v>-4.17</v>
+      </c>
+      <c r="I34" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="J34" s="8">
+        <v>-0.53</v>
+      </c>
       <c r="K34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="4">
         <v>14</v>
       </c>
@@ -3758,24 +4245,32 @@
       <c r="O34" s="4">
         <v>-22239980</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="11">
         <v>0.41</v>
       </c>
       <c r="Q34" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U34" s="12"/>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="R34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U34" s="13">
+        <v>0</v>
+      </c>
+      <c r="V34" s="14">
+        <v>4.47</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3786,7 +4281,7 @@
         <v>300649</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4">
         <v>-3.23</v>
@@ -3795,15 +4290,21 @@
         <v>19.5</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="H35" s="4">
+        <v>-2.62</v>
+      </c>
+      <c r="I35" s="4">
+        <v>19.63</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0.67</v>
+      </c>
       <c r="K35" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L35" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="L35" s="10"/>
       <c r="M35" s="4">
         <v>11</v>
       </c>
@@ -3819,18 +4320,26 @@
       <c r="Q35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U35" s="12"/>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="R35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U35" s="13">
+        <v>0</v>
+      </c>
+      <c r="V35" s="14">
+        <v>3.22</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3841,7 +4350,7 @@
         <v>300697</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E36" s="4">
         <v>3.04</v>
@@ -3850,15 +4359,21 @@
         <v>14.93</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="H36" s="4">
+        <v>-1.94</v>
+      </c>
+      <c r="I36" s="4">
+        <v>15.06</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.87</v>
+      </c>
       <c r="K36" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L36" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="L36" s="10"/>
       <c r="M36" s="4">
         <v>9</v>
       </c>
@@ -3868,24 +4383,32 @@
       <c r="O36" s="4">
         <v>48581232</v>
       </c>
-      <c r="P36" s="10">
+      <c r="P36" s="11">
         <v>0.39</v>
       </c>
       <c r="Q36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U36" s="12"/>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="R36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U36" s="13">
+        <v>0</v>
+      </c>
+      <c r="V36" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3896,7 +4419,7 @@
         <v>300700</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E37" s="4">
         <v>-1.33</v>
@@ -3905,15 +4428,21 @@
         <v>12.65</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="H37" s="4">
+        <v>-6.25</v>
+      </c>
+      <c r="I37" s="4">
+        <v>12.99</v>
+      </c>
+      <c r="J37" s="8">
+        <v>2.69</v>
+      </c>
       <c r="K37" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L37" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="L37" s="10"/>
       <c r="M37" s="4">
         <v>1</v>
       </c>
@@ -3923,24 +4452,32 @@
       <c r="O37" s="4">
         <v>-57986222</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="11">
         <v>0.38</v>
       </c>
       <c r="Q37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R37" s="13" t="s">
+      <c r="R37" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U37" s="12"/>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="S37" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U37" s="13">
+        <v>0</v>
+      </c>
+      <c r="V37" s="14">
+        <v>7.28</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3951,7 +4488,7 @@
         <v>300703</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E38" s="4">
         <v>4.95</v>
@@ -3960,15 +4497,21 @@
         <v>25.02</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="H38" s="4">
+        <v>-0.08</v>
+      </c>
+      <c r="I38" s="4">
+        <v>26.98</v>
+      </c>
+      <c r="J38" s="8">
+        <v>7.83</v>
+      </c>
       <c r="K38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="L38" s="10"/>
       <c r="M38" s="4">
         <v>1</v>
       </c>
@@ -3978,24 +4521,32 @@
       <c r="O38" s="4">
         <v>32550297</v>
       </c>
-      <c r="P38" s="10">
+      <c r="P38" s="11">
         <v>0.73</v>
       </c>
       <c r="Q38" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R38" s="13" t="s">
+      <c r="R38" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U38" s="12"/>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="S38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T38" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U38" s="13">
+        <v>0</v>
+      </c>
+      <c r="V38" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4006,7 +4557,7 @@
         <v>300748</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E39" s="4">
         <v>8.03</v>
@@ -4017,13 +4568,19 @@
       <c r="G39" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="8"/>
+      <c r="H39" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="I39" s="4">
+        <v>27.43</v>
+      </c>
+      <c r="J39" s="8">
+        <v>5.7</v>
+      </c>
       <c r="K39" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L39" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="L39" s="10"/>
       <c r="M39" s="4">
         <v>1</v>
       </c>
@@ -4039,18 +4596,26 @@
       <c r="Q39" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R39" s="13" t="s">
+      <c r="R39" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U39" s="12"/>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="S39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U39" s="13">
+        <v>0</v>
+      </c>
+      <c r="V39" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4061,7 +4626,7 @@
         <v>300753</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E40" s="4">
         <v>-1.72</v>
@@ -4072,13 +4637,19 @@
       <c r="G40" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="8"/>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>30.93</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0.39</v>
+      </c>
       <c r="K40" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L40" s="6"/>
+      <c r="L40" s="10"/>
       <c r="M40" s="4">
         <v>19</v>
       </c>
@@ -4094,18 +4665,26 @@
       <c r="Q40" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U40" s="12"/>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="R40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U40" s="13">
+        <v>0</v>
+      </c>
+      <c r="V40" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4116,7 +4695,7 @@
         <v>300773</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E41" s="4">
         <v>1.1</v>
@@ -4125,15 +4704,21 @@
         <v>29.51</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="H41" s="4">
+        <v>-3.22</v>
+      </c>
+      <c r="I41" s="4">
+        <v>29.11</v>
+      </c>
+      <c r="J41" s="8">
+        <v>-1.36</v>
+      </c>
       <c r="K41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L41" s="6"/>
+      <c r="L41" s="10"/>
       <c r="M41" s="4">
         <v>27</v>
       </c>
@@ -4149,18 +4734,26 @@
       <c r="Q41" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U41" s="12"/>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="R41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U41" s="16">
+        <v>1</v>
+      </c>
+      <c r="V41" s="14">
+        <v>8.58</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4171,7 +4764,7 @@
         <v>300778</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E42" s="4">
         <v>-12.93</v>
@@ -4180,15 +4773,21 @@
         <v>18.66</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="I42" s="4">
+        <v>19.66</v>
+      </c>
+      <c r="J42" s="8">
+        <v>5.36</v>
+      </c>
       <c r="K42" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L42" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="L42" s="10"/>
       <c r="M42" s="4">
         <v>4</v>
       </c>
@@ -4204,18 +4803,26 @@
       <c r="Q42" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U42" s="12"/>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="R42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U42" s="13">
+        <v>0</v>
+      </c>
+      <c r="V42" s="14">
+        <v>2.65</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4226,7 +4833,7 @@
         <v>300803</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E43" s="4">
         <v>13.06</v>
@@ -4235,15 +4842,21 @@
         <v>88.9</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="H43" s="4">
+        <v>-7.57</v>
+      </c>
+      <c r="I43" s="4">
+        <v>87.69</v>
+      </c>
+      <c r="J43" s="8">
+        <v>-1.36</v>
+      </c>
       <c r="K43" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L43" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="L43" s="10"/>
       <c r="M43" s="4">
         <v>11</v>
       </c>
@@ -4253,24 +4866,32 @@
       <c r="O43" s="4">
         <v>999972070</v>
       </c>
-      <c r="P43" s="10">
+      <c r="P43" s="11">
         <v>0.59</v>
       </c>
       <c r="Q43" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U43" s="12"/>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="R43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U43" s="13">
+        <v>0</v>
+      </c>
+      <c r="V43" s="14">
+        <v>1.38</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4281,7 +4902,7 @@
         <v>300821</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E44" s="4">
         <v>-3.56</v>
@@ -4292,13 +4913,19 @@
       <c r="G44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="8"/>
+      <c r="H44" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I44" s="4">
+        <v>10.51</v>
+      </c>
+      <c r="J44" s="8">
+        <v>2.24</v>
+      </c>
       <c r="K44" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L44" s="6"/>
+      <c r="L44" s="10"/>
       <c r="M44" s="4">
         <v>4</v>
       </c>
@@ -4314,18 +4941,26 @@
       <c r="Q44" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U44" s="12"/>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="R44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U44" s="13">
+        <v>0</v>
+      </c>
+      <c r="V44" s="14">
+        <v>2.88</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4336,7 +4971,7 @@
         <v>300847</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E45" s="4">
         <v>-0.23</v>
@@ -4345,15 +4980,21 @@
         <v>21.45</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-4.34</v>
+      </c>
+      <c r="I45" s="4">
+        <v>21.18</v>
+      </c>
+      <c r="J45" s="8">
+        <v>-1.26</v>
+      </c>
       <c r="K45" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="L45" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="L45" s="10"/>
       <c r="M45" s="4">
         <v>5</v>
       </c>
@@ -4369,18 +5010,26 @@
       <c r="Q45" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R45" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U45" s="12"/>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="R45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U45" s="13">
+        <v>0</v>
+      </c>
+      <c r="V45" s="14">
+        <v>5.62</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4391,7 +5040,7 @@
         <v>300872</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E46" s="4">
         <v>-0.75</v>
@@ -4400,15 +5049,21 @@
         <v>25.01</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="I46" s="4">
+        <v>25.55</v>
+      </c>
+      <c r="J46" s="8">
+        <v>2.16</v>
+      </c>
       <c r="K46" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L46" s="6"/>
+      <c r="L46" s="10"/>
       <c r="M46" s="4">
         <v>20</v>
       </c>
@@ -4418,24 +5073,32 @@
       <c r="O46" s="4">
         <v>-131109443</v>
       </c>
-      <c r="P46" s="10">
+      <c r="P46" s="11">
         <v>0.78</v>
       </c>
       <c r="Q46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R46" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S46" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T46" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U46" s="12"/>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="R46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U46" s="13">
+        <v>0</v>
+      </c>
+      <c r="V46" s="14">
+        <v>2.16</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4446,7 +5109,7 @@
         <v>300903</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E47" s="4">
         <v>-1.77</v>
@@ -4455,15 +5118,21 @@
         <v>10.54</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="I47" s="4">
+        <v>10.68</v>
+      </c>
+      <c r="J47" s="8">
+        <v>1.33</v>
+      </c>
       <c r="K47" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="L47" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="L47" s="10"/>
       <c r="M47" s="4">
         <v>16</v>
       </c>
@@ -4479,18 +5148,26 @@
       <c r="Q47" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R47" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S47" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T47" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U47" s="12"/>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="R47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U47" s="13">
+        <v>0</v>
+      </c>
+      <c r="V47" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -4501,7 +5178,7 @@
         <v>300930</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E48" s="4">
         <v>1.57</v>
@@ -4510,15 +5187,21 @@
         <v>33.09</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="8"/>
+        <v>129</v>
+      </c>
+      <c r="H48" s="4">
+        <v>-4.02</v>
+      </c>
+      <c r="I48" s="4">
+        <v>33</v>
+      </c>
+      <c r="J48" s="8">
+        <v>-0.27</v>
+      </c>
       <c r="K48" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L48" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="L48" s="10"/>
       <c r="M48" s="4">
         <v>2</v>
       </c>
@@ -4534,18 +5217,26 @@
       <c r="Q48" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U48" s="12"/>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="R48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U48" s="13">
+        <v>0</v>
+      </c>
+      <c r="V48" s="14">
+        <v>2.93</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -4556,7 +5247,7 @@
         <v>300947</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E49" s="4">
         <v>-3.31</v>
@@ -4565,15 +5256,21 @@
         <v>26.6</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="8"/>
+        <v>132</v>
+      </c>
+      <c r="H49" s="4">
+        <v>-3.08</v>
+      </c>
+      <c r="I49" s="4">
+        <v>26.49</v>
+      </c>
+      <c r="J49" s="8">
+        <v>-0.41</v>
+      </c>
       <c r="K49" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L49" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="L49" s="10"/>
       <c r="M49" s="4">
         <v>4</v>
       </c>
@@ -4589,18 +5286,26 @@
       <c r="Q49" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R49" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T49" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U49" s="12"/>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="R49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U49" s="13">
+        <v>0</v>
+      </c>
+      <c r="V49" s="14">
+        <v>3.66</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -4611,7 +5316,7 @@
         <v>300982</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E50" s="4">
         <v>-3.54</v>
@@ -4620,15 +5325,21 @@
         <v>21.26</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="H50" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="I50" s="4">
+        <v>22.48</v>
+      </c>
+      <c r="J50" s="8">
+        <v>5.74</v>
+      </c>
       <c r="K50" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L50" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="L50" s="10"/>
       <c r="M50" s="4">
         <v>4</v>
       </c>
@@ -4644,18 +5355,26 @@
       <c r="Q50" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R50" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T50" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U50" s="12"/>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="R50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T50" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U50" s="13">
+        <v>0</v>
+      </c>
+      <c r="V50" s="14">
+        <v>1.81</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4666,7 +5385,7 @@
         <v>300987</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E51" s="4">
         <v>-2.08</v>
@@ -4675,15 +5394,21 @@
         <v>19.78</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="8"/>
+        <v>138</v>
+      </c>
+      <c r="H51" s="4">
+        <v>-3.79</v>
+      </c>
+      <c r="I51" s="4">
+        <v>19.68</v>
+      </c>
+      <c r="J51" s="8">
+        <v>-0.51</v>
+      </c>
       <c r="K51" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L51" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="L51" s="10"/>
       <c r="M51" s="4">
         <v>2</v>
       </c>
@@ -4699,18 +5424,26 @@
       <c r="Q51" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R51" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T51" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U51" s="12"/>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="R51" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S51" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T51" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U51" s="13">
+        <v>0</v>
+      </c>
+      <c r="V51" s="14">
+        <v>1.31</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4721,7 +5454,7 @@
         <v>300991</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E52" s="4">
         <v>-7.49</v>
@@ -4730,15 +5463,21 @@
         <v>29.77</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="I52" s="4">
+        <v>30.88</v>
+      </c>
+      <c r="J52" s="8">
+        <v>3.73</v>
+      </c>
       <c r="K52" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="L52" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="L52" s="10"/>
       <c r="M52" s="4">
         <v>10</v>
       </c>
@@ -4754,18 +5493,26 @@
       <c r="Q52" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U52" s="12"/>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="R52" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S52" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T52" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U52" s="13">
+        <v>0</v>
+      </c>
+      <c r="V52" s="14">
+        <v>2.43</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4776,7 +5523,7 @@
         <v>301024</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E53" s="4">
         <v>-5.51</v>
@@ -4785,15 +5532,21 @@
         <v>53.48</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="H53" s="4">
+        <v>-3.61</v>
+      </c>
+      <c r="I53" s="4">
+        <v>52.25</v>
+      </c>
+      <c r="J53" s="8">
+        <v>-2.3</v>
+      </c>
       <c r="K53" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L53" s="6"/>
+      <c r="L53" s="10"/>
       <c r="M53" s="4">
         <v>9</v>
       </c>
@@ -4809,18 +5562,26 @@
       <c r="Q53" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R53" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S53" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T53" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U53" s="12"/>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="R53" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S53" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T53" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U53" s="16">
+        <v>1</v>
+      </c>
+      <c r="V53" s="14">
+        <v>4.72</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4831,7 +5592,7 @@
         <v>301120</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E54" s="4">
         <v>-8.5</v>
@@ -4840,15 +5601,21 @@
         <v>13.03</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="H54" s="4">
+        <v>6.29</v>
+      </c>
+      <c r="I54" s="4">
+        <v>14.11</v>
+      </c>
+      <c r="J54" s="8">
+        <v>8.29</v>
+      </c>
       <c r="K54" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L54" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="L54" s="10"/>
       <c r="M54" s="4">
         <v>3</v>
       </c>
@@ -4864,18 +5631,26 @@
       <c r="Q54" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R54" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S54" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T54" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U54" s="12"/>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="R54" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S54" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U54" s="13">
+        <v>0</v>
+      </c>
+      <c r="V54" s="14">
+        <v>0.69</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4886,7 +5661,7 @@
         <v>301132</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E55" s="4">
         <v>-1.16</v>
@@ -4895,15 +5670,21 @@
         <v>34.12</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="I55" s="4">
+        <v>34.6</v>
+      </c>
+      <c r="J55" s="8">
+        <v>1.41</v>
+      </c>
       <c r="K55" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L55" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="L55" s="10"/>
       <c r="M55" s="4">
         <v>14</v>
       </c>
@@ -4919,18 +5700,26 @@
       <c r="Q55" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R55" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S55" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T55" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U55" s="12"/>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="R55" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S55" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T55" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U55" s="13">
+        <v>0</v>
+      </c>
+      <c r="V55" s="14">
+        <v>10.3</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4941,7 +5730,7 @@
         <v>301141</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E56" s="4">
         <v>14.77</v>
@@ -4952,13 +5741,19 @@
       <c r="G56" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="8"/>
+      <c r="H56" s="4">
+        <v>-5.1</v>
+      </c>
+      <c r="I56" s="4">
+        <v>77.27</v>
+      </c>
+      <c r="J56" s="8">
+        <v>3.5</v>
+      </c>
       <c r="K56" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L56" s="6"/>
+      <c r="L56" s="10"/>
       <c r="M56" s="4">
         <v>11</v>
       </c>
@@ -4974,18 +5769,26 @@
       <c r="Q56" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R56" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S56" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T56" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U56" s="12"/>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="R56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U56" s="16">
+        <v>1</v>
+      </c>
+      <c r="V56" s="14">
+        <v>6.58</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4996,7 +5799,7 @@
         <v>301150</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E57" s="4">
         <v>-2.96</v>
@@ -5005,15 +5808,21 @@
         <v>22.98</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="H57" s="4">
+        <v>-0.57</v>
+      </c>
+      <c r="I57" s="4">
+        <v>23.55</v>
+      </c>
+      <c r="J57" s="8">
+        <v>2.48</v>
+      </c>
       <c r="K57" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L57" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="L57" s="10"/>
       <c r="M57" s="4">
         <v>7</v>
       </c>
@@ -5029,18 +5838,26 @@
       <c r="Q57" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R57" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S57" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T57" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U57" s="12"/>
-    </row>
-    <row r="58" spans="1:21">
+      <c r="R57" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S57" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T57" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U57" s="16">
+        <v>1</v>
+      </c>
+      <c r="V57" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5051,7 +5868,7 @@
         <v>301165</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E58" s="4">
         <v>2</v>
@@ -5060,15 +5877,21 @@
         <v>60.75</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="H58" s="4">
+        <v>-2.53</v>
+      </c>
+      <c r="I58" s="4">
+        <v>64.47</v>
+      </c>
+      <c r="J58" s="8">
+        <v>6.12</v>
+      </c>
       <c r="K58" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="L58" s="10"/>
       <c r="M58" s="4">
         <v>2</v>
       </c>
@@ -5078,24 +5901,32 @@
       <c r="O58" s="4">
         <v>17632929</v>
       </c>
-      <c r="P58" s="10">
+      <c r="P58" s="11">
         <v>0.31</v>
       </c>
       <c r="Q58" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R58" s="13" t="s">
+      <c r="R58" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S58" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T58" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U58" s="12"/>
-    </row>
-    <row r="59" spans="1:21">
+      <c r="S58" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T58" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U58" s="13">
+        <v>0</v>
+      </c>
+      <c r="V58" s="14">
+        <v>3.63</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -5106,7 +5937,7 @@
         <v>301176</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E59" s="4">
         <v>-6.07</v>
@@ -5115,15 +5946,21 @@
         <v>34.52</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="H59" s="4">
+        <v>8.05</v>
+      </c>
+      <c r="I59" s="4">
+        <v>37.77</v>
+      </c>
+      <c r="J59" s="8">
+        <v>9.41</v>
+      </c>
       <c r="K59" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L59" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="L59" s="10"/>
       <c r="M59" s="4">
         <v>16</v>
       </c>
@@ -5139,18 +5976,26 @@
       <c r="Q59" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R59" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S59" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T59" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U59" s="12"/>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="R59" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S59" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T59" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U59" s="13">
+        <v>0</v>
+      </c>
+      <c r="V59" s="14">
+        <v>1.95</v>
+      </c>
+      <c r="W59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -5161,7 +6006,7 @@
         <v>301178</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E60" s="4">
         <v>1.12</v>
@@ -5170,15 +6015,21 @@
         <v>57.95</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="H60" s="4">
+        <v>-2.4</v>
+      </c>
+      <c r="I60" s="4">
+        <v>58.02</v>
+      </c>
+      <c r="J60" s="8">
+        <v>0.12</v>
+      </c>
       <c r="K60" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="L60" s="6"/>
+        <v>154</v>
+      </c>
+      <c r="L60" s="10"/>
       <c r="M60" s="4">
         <v>5</v>
       </c>
@@ -5194,18 +6045,26 @@
       <c r="Q60" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U60" s="12"/>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="R60" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S60" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T60" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U60" s="16">
+        <v>1</v>
+      </c>
+      <c r="V60" s="14">
+        <v>6.62</v>
+      </c>
+      <c r="W60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -5216,7 +6075,7 @@
         <v>301197</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E61" s="4">
         <v>4.37</v>
@@ -5225,15 +6084,21 @@
         <v>23.42</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="H61" s="4">
+        <v>-5.64</v>
+      </c>
+      <c r="I61" s="4">
+        <v>23.06</v>
+      </c>
+      <c r="J61" s="8">
+        <v>-1.54</v>
+      </c>
       <c r="K61" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="L61" s="6"/>
+        <v>156</v>
+      </c>
+      <c r="L61" s="10"/>
       <c r="M61" s="4">
         <v>4</v>
       </c>
@@ -5249,18 +6114,26 @@
       <c r="Q61" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R61" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S61" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T61" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U61" s="12"/>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="R61" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S61" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T61" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U61" s="13">
+        <v>0</v>
+      </c>
+      <c r="V61" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="W61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5271,7 +6144,7 @@
         <v>301208</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E62" s="4">
         <v>6.46</v>
@@ -5280,15 +6153,21 @@
         <v>51.38</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="H62" s="4">
+        <v>-4.26</v>
+      </c>
+      <c r="I62" s="4">
+        <v>50.63</v>
+      </c>
+      <c r="J62" s="8">
+        <v>-1.46</v>
+      </c>
       <c r="K62" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="L62" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="L62" s="10"/>
       <c r="M62" s="4">
         <v>3</v>
       </c>
@@ -5298,24 +6177,32 @@
       <c r="O62" s="4">
         <v>58576679</v>
       </c>
-      <c r="P62" s="10">
+      <c r="P62" s="11">
         <v>0.85</v>
       </c>
       <c r="Q62" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R62" s="13" t="s">
+      <c r="R62" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U62" s="12"/>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="S62" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T62" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U62" s="13">
+        <v>0</v>
+      </c>
+      <c r="V62" s="14">
+        <v>3.95</v>
+      </c>
+      <c r="W62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5326,7 +6213,7 @@
         <v>301217</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E63" s="4">
         <v>-0.16</v>
@@ -5335,15 +6222,21 @@
         <v>19.23</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="H63" s="4">
+        <v>4.52</v>
+      </c>
+      <c r="I63" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="J63" s="8">
+        <v>11.28</v>
+      </c>
       <c r="K63" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="L63" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="L63" s="10"/>
       <c r="M63" s="4">
         <v>5</v>
       </c>
@@ -5359,18 +6252,26 @@
       <c r="Q63" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R63" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S63" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T63" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U63" s="12"/>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="R63" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S63" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T63" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U63" s="13">
+        <v>0</v>
+      </c>
+      <c r="V63" s="14">
+        <v>0.68</v>
+      </c>
+      <c r="W63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5381,7 +6282,7 @@
         <v>301257</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E64" s="4">
         <v>0.3</v>
@@ -5390,15 +6291,21 @@
         <v>36.62</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="I64" s="4">
+        <v>37.26</v>
+      </c>
+      <c r="J64" s="8">
+        <v>1.75</v>
+      </c>
       <c r="K64" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L64" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="L64" s="10"/>
       <c r="M64" s="4">
         <v>2</v>
       </c>
@@ -5408,24 +6315,32 @@
       <c r="O64" s="4">
         <v>-38498829</v>
       </c>
-      <c r="P64" s="10">
+      <c r="P64" s="11">
         <v>0.93</v>
       </c>
       <c r="Q64" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R64" s="13" t="s">
+      <c r="R64" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S64" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T64" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U64" s="12"/>
-    </row>
-    <row r="65" spans="1:21">
+      <c r="S64" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T64" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U64" s="13">
+        <v>0</v>
+      </c>
+      <c r="V64" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="W64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -5436,7 +6351,7 @@
         <v>301306</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E65" s="4">
         <v>0.43</v>
@@ -5445,15 +6360,21 @@
         <v>51.22</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="I65" s="4">
+        <v>51.5</v>
+      </c>
+      <c r="J65" s="8">
+        <v>0.55</v>
+      </c>
       <c r="K65" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="L65" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="L65" s="10"/>
       <c r="M65" s="4">
         <v>6</v>
       </c>
@@ -5463,24 +6384,32 @@
       <c r="O65" s="4">
         <v>-27327403</v>
       </c>
-      <c r="P65" s="10">
+      <c r="P65" s="11">
         <v>0.42</v>
       </c>
       <c r="Q65" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R65" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S65" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T65" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U65" s="12"/>
-    </row>
-    <row r="66" spans="1:21">
+      <c r="R65" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S65" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T65" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U65" s="16">
+        <v>1</v>
+      </c>
+      <c r="V65" s="14">
+        <v>6.68</v>
+      </c>
+      <c r="W65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -5491,7 +6420,7 @@
         <v>301311</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E66" s="4">
         <v>7.37</v>
@@ -5500,15 +6429,21 @@
         <v>22.74</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="H66" s="4">
+        <v>-2.15</v>
+      </c>
+      <c r="I66" s="4">
+        <v>22.84</v>
+      </c>
+      <c r="J66" s="8">
+        <v>0.44</v>
+      </c>
       <c r="K66" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="L66" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="L66" s="10"/>
       <c r="M66" s="4">
         <v>1</v>
       </c>
@@ -5518,24 +6453,32 @@
       <c r="O66" s="4">
         <v>133206997</v>
       </c>
-      <c r="P66" s="10">
+      <c r="P66" s="11">
         <v>2.61</v>
       </c>
       <c r="Q66" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R66" s="13" t="s">
+      <c r="R66" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S66" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T66" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U66" s="12"/>
-    </row>
-    <row r="67" spans="1:21">
+      <c r="S66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U66" s="16">
+        <v>1</v>
+      </c>
+      <c r="V66" s="14">
+        <v>4</v>
+      </c>
+      <c r="W66" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5546,7 +6489,7 @@
         <v>301345</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E67" s="4">
         <v>-2.61</v>
@@ -5555,15 +6498,21 @@
         <v>139.66</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="8"/>
+        <v>169</v>
+      </c>
+      <c r="H67" s="4">
+        <v>5.25</v>
+      </c>
+      <c r="I67" s="4">
+        <v>147.54</v>
+      </c>
+      <c r="J67" s="8">
+        <v>5.64</v>
+      </c>
       <c r="K67" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="L67" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="L67" s="10"/>
       <c r="M67" s="4">
         <v>9</v>
       </c>
@@ -5579,18 +6528,26 @@
       <c r="Q67" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R67" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S67" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T67" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U67" s="12"/>
-    </row>
-    <row r="68" spans="1:21">
+      <c r="R67" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S67" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T67" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U67" s="13">
+        <v>0</v>
+      </c>
+      <c r="V67" s="14">
+        <v>2.09</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5601,7 +6558,7 @@
         <v>301388</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E68" s="4">
         <v>-1.9</v>
@@ -5610,15 +6567,21 @@
         <v>35.11</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="8"/>
+        <v>172</v>
+      </c>
+      <c r="H68" s="4">
+        <v>19.99</v>
+      </c>
+      <c r="I68" s="4">
+        <v>42.13</v>
+      </c>
+      <c r="J68" s="8">
+        <v>19.99</v>
+      </c>
       <c r="K68" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L68" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="L68" s="10"/>
       <c r="M68" s="4">
         <v>5</v>
       </c>
@@ -5634,18 +6597,26 @@
       <c r="Q68" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R68" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S68" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T68" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U68" s="12"/>
-    </row>
-    <row r="69" spans="1:21">
+      <c r="R68" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S68" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T68" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U68" s="13">
+        <v>0</v>
+      </c>
+      <c r="V68" s="14">
+        <v>5.23</v>
+      </c>
+      <c r="W68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -5656,7 +6627,7 @@
         <v>301389</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E69" s="4">
         <v>-2.31</v>
@@ -5665,15 +6636,21 @@
         <v>33.35</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="H69" s="4">
+        <v>-1.05</v>
+      </c>
+      <c r="I69" s="4">
+        <v>34.6</v>
+      </c>
+      <c r="J69" s="8">
+        <v>3.75</v>
+      </c>
       <c r="K69" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="L69" s="6"/>
+        <v>174</v>
+      </c>
+      <c r="L69" s="10"/>
       <c r="M69" s="4">
         <v>4</v>
       </c>
@@ -5689,18 +6666,26 @@
       <c r="Q69" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R69" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S69" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T69" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U69" s="12"/>
-    </row>
-    <row r="70" spans="1:21">
+      <c r="R69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T69" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U69" s="13">
+        <v>0</v>
+      </c>
+      <c r="V69" s="14">
+        <v>1.43</v>
+      </c>
+      <c r="W69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5711,7 +6696,7 @@
         <v>301421</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E70" s="4">
         <v>2.79</v>
@@ -5720,15 +6705,21 @@
         <v>72.11</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="H70" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="I70" s="4">
+        <v>74.07</v>
+      </c>
+      <c r="J70" s="8">
+        <v>2.72</v>
+      </c>
       <c r="K70" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="L70" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="L70" s="10"/>
       <c r="M70" s="4">
         <v>15</v>
       </c>
@@ -5738,24 +6729,32 @@
       <c r="O70" s="4">
         <v>-10361177</v>
       </c>
-      <c r="P70" s="10">
+      <c r="P70" s="11">
         <v>1.58</v>
       </c>
       <c r="Q70" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U70" s="12"/>
-    </row>
-    <row r="71" spans="1:21">
+      <c r="R70" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S70" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T70" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U70" s="13">
+        <v>0</v>
+      </c>
+      <c r="V70" s="14">
+        <v>1.89</v>
+      </c>
+      <c r="W70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5766,7 +6765,7 @@
         <v>301511</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E71" s="4">
         <v>-2.61</v>
@@ -5775,15 +6774,21 @@
         <v>24.6</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="H71" s="4">
+        <v>-0.41</v>
+      </c>
+      <c r="I71" s="4">
+        <v>25.23</v>
+      </c>
+      <c r="J71" s="8">
+        <v>2.56</v>
+      </c>
       <c r="K71" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L71" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="L71" s="10"/>
       <c r="M71" s="4">
         <v>14</v>
       </c>
@@ -5799,18 +6804,26 @@
       <c r="Q71" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R71" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S71" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T71" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U71" s="12"/>
-    </row>
-    <row r="72" spans="1:21">
+      <c r="R71" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S71" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T71" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U71" s="13">
+        <v>0</v>
+      </c>
+      <c r="V71" s="14">
+        <v>1.79</v>
+      </c>
+      <c r="W71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5821,7 +6834,7 @@
         <v>301526</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E72" s="4">
         <v>-9.09</v>
@@ -5832,13 +6845,19 @@
       <c r="G72" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="8"/>
+      <c r="H72" s="4">
+        <v>-2.4</v>
+      </c>
+      <c r="I72" s="4">
+        <v>5.07</v>
+      </c>
+      <c r="J72" s="8">
+        <v>1.4</v>
+      </c>
       <c r="K72" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L72" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="L72" s="10"/>
       <c r="M72" s="4">
         <v>4</v>
       </c>
@@ -5854,18 +6873,26 @@
       <c r="Q72" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R72" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S72" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T72" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U72" s="12"/>
-    </row>
-    <row r="73" spans="1:21">
+      <c r="R72" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S72" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T72" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U72" s="13">
+        <v>0</v>
+      </c>
+      <c r="V72" s="14">
+        <v>1.78</v>
+      </c>
+      <c r="W72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5876,7 +6903,7 @@
         <v>301622</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E73" s="4">
         <v>4.41</v>
@@ -5887,13 +6914,19 @@
       <c r="G73" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="8"/>
+      <c r="H73" s="4">
+        <v>-2.88</v>
+      </c>
+      <c r="I73" s="4">
+        <v>91</v>
+      </c>
+      <c r="J73" s="8">
+        <v>2.5</v>
+      </c>
       <c r="K73" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L73" s="6"/>
+      <c r="L73" s="10"/>
       <c r="M73" s="4">
         <v>1</v>
       </c>
@@ -5909,18 +6942,26 @@
       <c r="Q73" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R73" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S73" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T73" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U73" s="12"/>
-    </row>
-    <row r="74" spans="1:21">
+      <c r="R73" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S73" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T73" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U73" s="13">
+        <v>0</v>
+      </c>
+      <c r="V73" s="14">
+        <v>3.78</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5931,7 +6972,7 @@
         <v>688062</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E74" s="4">
         <v>0.85</v>
@@ -5940,15 +6981,21 @@
         <v>32</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="8"/>
+        <v>183</v>
+      </c>
+      <c r="H74" s="4">
+        <v>-2.56</v>
+      </c>
+      <c r="I74" s="4">
+        <v>32.35</v>
+      </c>
+      <c r="J74" s="8">
+        <v>1.09</v>
+      </c>
       <c r="K74" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L74" s="6"/>
+      <c r="L74" s="10"/>
       <c r="M74" s="4">
         <v>7</v>
       </c>
@@ -5964,18 +7011,26 @@
       <c r="Q74" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R74" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S74" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T74" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U74" s="12"/>
-    </row>
-    <row r="75" spans="1:21">
+      <c r="R74" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S74" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T74" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U74" s="13">
+        <v>0</v>
+      </c>
+      <c r="V74" s="14">
+        <v>2.89</v>
+      </c>
+      <c r="W74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5986,7 +7041,7 @@
         <v>688077</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E75" s="4">
         <v>8.36</v>
@@ -5997,13 +7052,19 @@
       <c r="G75" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="8"/>
+      <c r="H75" s="4">
+        <v>-3.35</v>
+      </c>
+      <c r="I75" s="4">
+        <v>34.88</v>
+      </c>
+      <c r="J75" s="8">
+        <v>3.5</v>
+      </c>
       <c r="K75" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L75" s="6"/>
+      <c r="L75" s="10"/>
       <c r="M75" s="4">
         <v>1</v>
       </c>
@@ -6019,18 +7080,26 @@
       <c r="Q75" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R75" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S75" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T75" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U75" s="12"/>
-    </row>
-    <row r="76" spans="1:21">
+      <c r="R75" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S75" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T75" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U75" s="13">
+        <v>0</v>
+      </c>
+      <c r="V75" s="14">
+        <v>1.56</v>
+      </c>
+      <c r="W75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -6041,7 +7110,7 @@
         <v>688084</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E76" s="4">
         <v>4.58</v>
@@ -6050,15 +7119,21 @@
         <v>99.98</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="H76" s="4">
+        <v>-1.41</v>
+      </c>
+      <c r="I76" s="4">
+        <v>104.56</v>
+      </c>
+      <c r="J76" s="8">
+        <v>4.58</v>
+      </c>
       <c r="K76" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="L76" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="L76" s="10"/>
       <c r="M76" s="4">
         <v>1</v>
       </c>
@@ -6074,18 +7149,26 @@
       <c r="Q76" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R76" s="13" t="s">
+      <c r="R76" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S76" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T76" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U76" s="12"/>
-    </row>
-    <row r="77" spans="1:21">
+      <c r="S76" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T76" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U76" s="13">
+        <v>0</v>
+      </c>
+      <c r="V76" s="14">
+        <v>3.59</v>
+      </c>
+      <c r="W76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -6096,7 +7179,7 @@
         <v>688117</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E77" s="4">
         <v>1.89</v>
@@ -6105,15 +7188,21 @@
         <v>35.09</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="8"/>
+        <v>183</v>
+      </c>
+      <c r="H77" s="4">
+        <v>6.24</v>
+      </c>
+      <c r="I77" s="4">
+        <v>38.33</v>
+      </c>
+      <c r="J77" s="8">
+        <v>9.23</v>
+      </c>
       <c r="K77" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L77" s="6"/>
+      <c r="L77" s="10"/>
       <c r="M77" s="4">
         <v>24</v>
       </c>
@@ -6129,18 +7218,26 @@
       <c r="Q77" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R77" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S77" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T77" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U77" s="12"/>
-    </row>
-    <row r="78" spans="1:21">
+      <c r="R77" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S77" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T77" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U77" s="13">
+        <v>0</v>
+      </c>
+      <c r="V77" s="14">
+        <v>1.12</v>
+      </c>
+      <c r="W77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -6151,7 +7248,7 @@
         <v>688202</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E78" s="4">
         <v>7.22</v>
@@ -6160,15 +7257,21 @@
         <v>53.93</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="H78" s="4">
+        <v>-3.58</v>
+      </c>
+      <c r="I78" s="4">
+        <v>53.8</v>
+      </c>
+      <c r="J78" s="8">
+        <v>-0.24</v>
+      </c>
       <c r="K78" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L78" s="6"/>
+        <v>189</v>
+      </c>
+      <c r="L78" s="10"/>
       <c r="M78" s="4">
         <v>4</v>
       </c>
@@ -6178,24 +7281,32 @@
       <c r="O78" s="4">
         <v>77288840</v>
       </c>
-      <c r="P78" s="10">
+      <c r="P78" s="11">
         <v>0.63</v>
       </c>
       <c r="Q78" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R78" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S78" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T78" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U78" s="12"/>
-    </row>
-    <row r="79" spans="1:21">
+      <c r="R78" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S78" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T78" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U78" s="13">
+        <v>0</v>
+      </c>
+      <c r="V78" s="14">
+        <v>0.66</v>
+      </c>
+      <c r="W78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -6206,7 +7317,7 @@
         <v>688221</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E79" s="4">
         <v>12.66</v>
@@ -6215,15 +7326,21 @@
         <v>18.16</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="8"/>
+        <v>183</v>
+      </c>
+      <c r="H79" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="I79" s="4">
+        <v>18.82</v>
+      </c>
+      <c r="J79" s="8">
+        <v>3.63</v>
+      </c>
       <c r="K79" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="L79" s="6"/>
+        <v>191</v>
+      </c>
+      <c r="L79" s="10"/>
       <c r="M79" s="4">
         <v>5</v>
       </c>
@@ -6239,18 +7356,26 @@
       <c r="Q79" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R79" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S79" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T79" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U79" s="12"/>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="R79" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S79" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T79" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U79" s="13">
+        <v>0</v>
+      </c>
+      <c r="V79" s="14">
+        <v>-0.01</v>
+      </c>
+      <c r="W79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -6261,7 +7386,7 @@
         <v>688313</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E80" s="4">
         <v>14.85</v>
@@ -6270,15 +7395,21 @@
         <v>43.7</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="H80" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="I80" s="4">
+        <v>43.35</v>
+      </c>
+      <c r="J80" s="8">
+        <v>-0.8</v>
+      </c>
       <c r="K80" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="L80" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="L80" s="10"/>
       <c r="M80" s="4">
         <v>18</v>
       </c>
@@ -6288,23 +7419,32 @@
       <c r="O80" s="4">
         <v>77260950</v>
       </c>
-      <c r="P80" s="10">
+      <c r="P80" s="11">
         <v>0.62</v>
       </c>
       <c r="Q80" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R80" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S80" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T80" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
+      <c r="R80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U80" s="13">
+        <v>0</v>
+      </c>
+      <c r="V80" s="14">
+        <v>1.92</v>
+      </c>
+      <c r="W80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6315,7 +7455,7 @@
         <v>688321</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E81" s="4">
         <v>3.46</v>
@@ -6326,13 +7466,19 @@
       <c r="G81" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="8"/>
+      <c r="H81" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="I81" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="J81" s="8">
+        <v>2.07</v>
+      </c>
       <c r="K81" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L81" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="L81" s="10"/>
       <c r="M81" s="4">
         <v>9</v>
       </c>
@@ -6348,17 +7494,26 @@
       <c r="Q81" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R81" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S81" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T81" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
+      <c r="R81" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S81" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T81" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U81" s="13">
+        <v>0</v>
+      </c>
+      <c r="V81" s="14">
+        <v>-1.59</v>
+      </c>
+      <c r="W81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6369,7 +7524,7 @@
         <v>688553</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E82" s="4">
         <v>-1.28</v>
@@ -6380,13 +7535,19 @@
       <c r="G82" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="8"/>
+      <c r="H82" s="4">
+        <v>-1.69</v>
+      </c>
+      <c r="I82" s="4">
+        <v>20.14</v>
+      </c>
+      <c r="J82" s="8">
+        <v>0.35</v>
+      </c>
       <c r="K82" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="L82" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="L82" s="10"/>
       <c r="M82" s="4">
         <v>6</v>
       </c>
@@ -6402,17 +7563,26 @@
       <c r="Q82" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R82" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S82" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T82" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
+      <c r="R82" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S82" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T82" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U82" s="13">
+        <v>0</v>
+      </c>
+      <c r="V82" s="14">
+        <v>5.69</v>
+      </c>
+      <c r="W82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6423,7 +7593,7 @@
         <v>688717</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E83" s="4">
         <v>-3.92</v>
@@ -6432,15 +7602,21 @@
         <v>64</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="8"/>
+        <v>197</v>
+      </c>
+      <c r="H83" s="4">
+        <v>2</v>
+      </c>
+      <c r="I83" s="4">
+        <v>66.57</v>
+      </c>
+      <c r="J83" s="8">
+        <v>4.02</v>
+      </c>
       <c r="K83" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="L83" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="L83" s="10"/>
       <c r="M83" s="4">
         <v>4</v>
       </c>
@@ -6456,17 +7632,26 @@
       <c r="Q83" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R83" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S83" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T83" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20">
+      <c r="R83" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S83" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T83" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U83" s="13">
+        <v>0</v>
+      </c>
+      <c r="V83" s="14">
+        <v>4.68</v>
+      </c>
+      <c r="W83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6477,9 +7662,9 @@
         <v>688799</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E84" s="14">
+        <v>198</v>
+      </c>
+      <c r="E84" s="6">
         <v>0</v>
       </c>
       <c r="F84" s="4">
@@ -6488,13 +7673,19 @@
       <c r="G84" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="8"/>
+      <c r="H84" s="4">
+        <v>-7.23</v>
+      </c>
+      <c r="I84" s="4">
+        <v>58.4</v>
+      </c>
+      <c r="J84" s="8">
+        <v>0.71</v>
+      </c>
       <c r="K84" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L84" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="L84" s="10"/>
       <c r="M84" s="4">
         <v>3</v>
       </c>
@@ -6504,141 +7695,150 @@
       <c r="O84" s="4">
         <v>-1396849</v>
       </c>
-      <c r="P84" s="10">
+      <c r="P84" s="11">
         <v>0.34</v>
       </c>
       <c r="Q84" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R84" s="13" t="s">
+      <c r="R84" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="S84" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T84" s="11" t="s">
-        <v>23</v>
+      <c r="S84" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T84" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U84" s="13">
+        <v>0</v>
+      </c>
+      <c r="V84" s="14">
+        <v>2.21</v>
+      </c>
+      <c r="W84" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="23"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="26"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="18"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="23"/>
-      <c r="R86" s="23"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="24"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="27"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="18"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="24"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="27"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="24"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="27"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="18"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="21"/>
-      <c r="R90" s="23"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataanalysis/alert/0711.xlsx
+++ b/dataanalysis/alert/0711.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="201">
   <si>
     <t>序号</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>最高价</t>
+  </si>
+  <si>
+    <t>AI预测</t>
+  </si>
+  <si>
+    <t>AI幅度</t>
   </si>
   <si>
     <t>北陆药业</t>
@@ -1312,7 +1318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1349,6 +1355,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1365,35 +1377,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1922,8 +1907,8 @@
   <sheetPr/>
   <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:W84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1931,7 +1916,7 @@
     <col min="14" max="15" width="11.5045045045045"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.85" spans="1:20">
+    <row r="1" ht="24.85" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1991,6 +1976,12 @@
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -2004,7 +1995,7 @@
         <v>300016</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4">
         <v>-0.22</v>
@@ -2013,7 +2004,7 @@
         <v>9.24</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4">
         <v>-0.11</v>
@@ -2025,7 +2016,7 @@
         <v>2.27</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="4">
@@ -2041,21 +2032,21 @@
         <v>-0.17</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="13">
-        <v>0</v>
-      </c>
-      <c r="V2" s="14">
+        <v>25</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="15">
+        <v>0</v>
+      </c>
+      <c r="V2" s="16">
         <v>2.95</v>
       </c>
       <c r="W2" s="2">
@@ -2073,7 +2064,7 @@
         <v>300019</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4">
         <v>-7.61</v>
@@ -2082,7 +2073,7 @@
         <v>22.47</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4">
         <v>2.05</v>
@@ -2094,7 +2085,7 @@
         <v>3.83</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="4">
@@ -2110,21 +2101,21 @@
         <v>-2.05</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="13">
-        <v>0</v>
-      </c>
-      <c r="V3" s="14">
+        <v>25</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="15">
+        <v>0</v>
+      </c>
+      <c r="V3" s="16">
         <v>0</v>
       </c>
       <c r="W3" s="2">
@@ -2142,7 +2133,7 @@
         <v>300043</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4">
         <v>-0.81</v>
@@ -2151,7 +2142,7 @@
         <v>4.88</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4">
         <v>-3.69</v>
@@ -2163,7 +2154,7 @@
         <v>-0.82</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="4">
@@ -2179,21 +2170,21 @@
         <v>-0.8</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="13">
-        <v>0</v>
-      </c>
-      <c r="V4" s="14">
+        <v>25</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0</v>
+      </c>
+      <c r="V4" s="16">
         <v>6.13</v>
       </c>
       <c r="W4" s="2">
@@ -2211,7 +2202,7 @@
         <v>300066</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4">
         <v>20.09</v>
@@ -2220,7 +2211,7 @@
         <v>5.5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="4">
         <v>15.27</v>
@@ -2232,7 +2223,7 @@
         <v>19.82</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="4">
@@ -2248,21 +2239,21 @@
         <v>2.23</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="13">
-        <v>0</v>
-      </c>
-      <c r="V5" s="14">
+        <v>25</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0</v>
+      </c>
+      <c r="V5" s="16">
         <v>9.46</v>
       </c>
       <c r="W5" s="2">
@@ -2280,7 +2271,7 @@
         <v>300127</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4">
         <v>3.83</v>
@@ -2289,7 +2280,7 @@
         <v>30.89</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" s="4">
         <v>-3.95</v>
@@ -2301,7 +2292,7 @@
         <v>2.1</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="4">
@@ -2317,21 +2308,21 @@
         <v>-0.27</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="13">
-        <v>0</v>
-      </c>
-      <c r="V6" s="14">
+        <v>25</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0</v>
+      </c>
+      <c r="V6" s="16">
         <v>1.07</v>
       </c>
       <c r="W6" s="2">
@@ -2349,7 +2340,7 @@
         <v>300130</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4">
         <v>-1.05</v>
@@ -2358,7 +2349,7 @@
         <v>33.84</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="4">
         <v>-2.63</v>
@@ -2370,7 +2361,7 @@
         <v>-0.98</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="4">
@@ -2386,21 +2377,21 @@
         <v>-0.9</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" s="13">
-        <v>0</v>
-      </c>
-      <c r="V7" s="14">
+        <v>25</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="15">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16">
         <v>5.02</v>
       </c>
       <c r="W7" s="2">
@@ -2418,7 +2409,7 @@
         <v>300160</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4">
         <v>-1.28</v>
@@ -2427,7 +2418,7 @@
         <v>6.19</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="4">
         <v>0.16</v>
@@ -2439,7 +2430,7 @@
         <v>1.29</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="4">
@@ -2455,21 +2446,21 @@
         <v>-0.49</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="13">
-        <v>0</v>
-      </c>
-      <c r="V8" s="14">
+        <v>25</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="15">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
         <v>3.57</v>
       </c>
       <c r="W8" s="2">
@@ -2487,7 +2478,7 @@
         <v>300180</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4">
         <v>3.05</v>
@@ -2496,7 +2487,7 @@
         <v>9.81</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
@@ -2508,7 +2499,7 @@
         <v>3.67</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="4">
@@ -2524,21 +2515,21 @@
         <v>1.11</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U9" s="13">
-        <v>0</v>
-      </c>
-      <c r="V9" s="14">
+        <v>25</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="15">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
         <v>4.85</v>
       </c>
       <c r="W9" s="2">
@@ -2556,7 +2547,7 @@
         <v>300196</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4">
         <v>-4.07</v>
@@ -2565,7 +2556,7 @@
         <v>14.39</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="4">
         <v>-0.76</v>
@@ -2577,7 +2568,7 @@
         <v>1.32</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="4">
@@ -2593,21 +2584,21 @@
         <v>-1.48</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U10" s="13">
-        <v>0</v>
-      </c>
-      <c r="V10" s="14">
+        <v>25</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" s="15">
+        <v>0</v>
+      </c>
+      <c r="V10" s="16">
         <v>1.32</v>
       </c>
       <c r="W10" s="2">
@@ -2625,7 +2616,7 @@
         <v>300199</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" s="4">
         <v>1.48</v>
@@ -2634,7 +2625,7 @@
         <v>18.51</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11" s="4">
         <v>2.05</v>
@@ -2646,7 +2637,7 @@
         <v>3.19</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="4">
@@ -2662,21 +2653,21 @@
         <v>-0.58</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U11" s="13">
-        <v>0</v>
-      </c>
-      <c r="V11" s="14">
+        <v>25</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="15">
+        <v>0</v>
+      </c>
+      <c r="V11" s="16">
         <v>1.41</v>
       </c>
       <c r="W11" s="2">
@@ -2694,7 +2685,7 @@
         <v>300246</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="4">
         <v>-7.05</v>
@@ -2703,7 +2694,7 @@
         <v>9.36</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H12" s="4">
         <v>0.53</v>
@@ -2715,7 +2706,7 @@
         <v>2.56</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="4">
@@ -2731,21 +2722,21 @@
         <v>-0.77</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12" s="13">
-        <v>0</v>
-      </c>
-      <c r="V12" s="14">
+        <v>25</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" s="15">
+        <v>0</v>
+      </c>
+      <c r="V12" s="16">
         <v>1.59</v>
       </c>
       <c r="W12" s="2">
@@ -2763,7 +2754,7 @@
         <v>300254</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" s="4">
         <v>-3.45</v>
@@ -2772,7 +2763,7 @@
         <v>11.2</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H13" s="4">
         <v>1.07</v>
@@ -2784,7 +2775,7 @@
         <v>4.46</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="4">
@@ -2800,21 +2791,21 @@
         <v>-2.63</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" s="16">
+        <v>25</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13" s="18">
         <v>1</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="16">
         <v>6.71</v>
       </c>
       <c r="W13" s="2">
@@ -2832,7 +2823,7 @@
         <v>300269</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" s="4">
         <v>-1.09</v>
@@ -2841,7 +2832,7 @@
         <v>5.42</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H14" s="4">
         <v>-1.48</v>
@@ -2853,7 +2844,7 @@
         <v>0.55</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="4">
@@ -2869,21 +2860,21 @@
         <v>-0.61</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U14" s="13">
-        <v>0</v>
-      </c>
-      <c r="V14" s="14">
+        <v>25</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="15">
+        <v>0</v>
+      </c>
+      <c r="V14" s="16">
         <v>2.77</v>
       </c>
       <c r="W14" s="2">
@@ -2901,7 +2892,7 @@
         <v>300335</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" s="4">
         <v>0.16</v>
@@ -2910,7 +2901,7 @@
         <v>6.25</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="4">
         <v>0.16</v>
@@ -2922,7 +2913,7 @@
         <v>1.76</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="4">
@@ -2938,21 +2929,21 @@
         <v>-0.21</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U15" s="13">
-        <v>0</v>
-      </c>
-      <c r="V15" s="14">
+        <v>25</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" s="15">
+        <v>0</v>
+      </c>
+      <c r="V15" s="16">
         <v>7.08</v>
       </c>
       <c r="W15" s="2">
@@ -2970,7 +2961,7 @@
         <v>300348</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4">
         <v>7.03</v>
@@ -2979,7 +2970,7 @@
         <v>20.87</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H16" s="4">
         <v>-8.67</v>
@@ -2991,7 +2982,7 @@
         <v>2.83</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="4">
@@ -3007,21 +2998,21 @@
         <v>1.91</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U16" s="13">
-        <v>0</v>
-      </c>
-      <c r="V16" s="14">
+        <v>25</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
         <v>-0.56</v>
       </c>
       <c r="W16" s="2">
@@ -3039,7 +3030,7 @@
         <v>300371</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" s="4">
         <v>-7.85</v>
@@ -3048,7 +3039,7 @@
         <v>13.27</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H17" s="4">
         <v>3.84</v>
@@ -3060,7 +3051,7 @@
         <v>4.6</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="4">
@@ -3076,21 +3067,21 @@
         <v>-0.53</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U17" s="13">
-        <v>0</v>
-      </c>
-      <c r="V17" s="14">
+        <v>25</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" s="15">
+        <v>0</v>
+      </c>
+      <c r="V17" s="16">
         <v>0.66</v>
       </c>
       <c r="W17" s="2">
@@ -3108,7 +3099,7 @@
         <v>300399</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E18" s="4">
         <v>5.59</v>
@@ -3117,7 +3108,7 @@
         <v>34.2</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H18" s="4">
         <v>-2.66</v>
@@ -3129,7 +3120,7 @@
         <v>2.51</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="4">
@@ -3145,21 +3136,21 @@
         <v>1.48</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18" s="13">
-        <v>0</v>
-      </c>
-      <c r="V18" s="14">
+        <v>25</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="16">
         <v>-1.05</v>
       </c>
       <c r="W18" s="2">
@@ -3177,7 +3168,7 @@
         <v>300410</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4">
         <v>3.42</v>
@@ -3186,7 +3177,7 @@
         <v>7.86</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H19" s="4">
         <v>3.05</v>
@@ -3198,7 +3189,7 @@
         <v>4.96</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="4">
@@ -3214,21 +3205,21 @@
         <v>0.9</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U19" s="13">
-        <v>0</v>
-      </c>
-      <c r="V19" s="14">
+        <v>25</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U19" s="15">
+        <v>0</v>
+      </c>
+      <c r="V19" s="16">
         <v>0.7</v>
       </c>
       <c r="W19" s="2">
@@ -3246,7 +3237,7 @@
         <v>300436</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4">
         <v>7.27</v>
@@ -3255,7 +3246,7 @@
         <v>62</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H20" s="4">
         <v>0.82</v>
@@ -3267,7 +3258,7 @@
         <v>7.34</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="4">
@@ -3283,21 +3274,21 @@
         <v>0.96</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U20" s="16">
+        <v>25</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20" s="18">
         <v>1</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="16">
         <v>4.7</v>
       </c>
       <c r="W20" s="2">
@@ -3315,7 +3306,7 @@
         <v>300468</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E21" s="4">
         <v>2.15</v>
@@ -3324,7 +3315,7 @@
         <v>45.09</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H21" s="4">
         <v>-3.44</v>
@@ -3336,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="4">
@@ -3352,21 +3343,21 @@
         <v>-1.02</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U21" s="16">
+        <v>25</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U21" s="18">
         <v>1</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="16">
         <v>8.72</v>
       </c>
       <c r="W21" s="2">
@@ -3384,7 +3375,7 @@
         <v>300471</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22" s="4">
         <v>3.14</v>
@@ -3393,7 +3384,7 @@
         <v>12.83</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H22" s="4">
         <v>-5.85</v>
@@ -3405,7 +3396,7 @@
         <v>-3.35</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="4">
@@ -3421,21 +3412,21 @@
         <v>-0.69</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U22" s="13">
-        <v>0</v>
-      </c>
-      <c r="V22" s="14">
+        <v>25</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U22" s="15">
+        <v>0</v>
+      </c>
+      <c r="V22" s="16">
         <v>2.91</v>
       </c>
       <c r="W22" s="2">
@@ -3453,7 +3444,7 @@
         <v>300485</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E23" s="4">
         <v>-2.37</v>
@@ -3462,7 +3453,7 @@
         <v>13.61</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H23" s="4">
         <v>1.98</v>
@@ -3474,7 +3465,7 @@
         <v>2.42</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="4">
@@ -3490,21 +3481,21 @@
         <v>-1.24</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U23" s="16">
+        <v>25</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23" s="18">
         <v>1</v>
       </c>
-      <c r="V23" s="14">
+      <c r="V23" s="16">
         <v>6.05</v>
       </c>
       <c r="W23" s="2">
@@ -3522,7 +3513,7 @@
         <v>300505</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E24" s="4">
         <v>0.15</v>
@@ -3531,7 +3522,7 @@
         <v>19.98</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H24" s="4">
         <v>-0.35</v>
@@ -3543,7 +3534,7 @@
         <v>0.1</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L24" s="10"/>
       <c r="M24" s="4">
@@ -3559,21 +3550,21 @@
         <v>-0.04</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U24" s="13">
-        <v>0</v>
-      </c>
-      <c r="V24" s="14">
+        <v>25</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="15">
+        <v>0</v>
+      </c>
+      <c r="V24" s="16">
         <v>0.85</v>
       </c>
       <c r="W24" s="2">
@@ -3591,7 +3582,7 @@
         <v>300527</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E25" s="4">
         <v>2.25</v>
@@ -3600,7 +3591,7 @@
         <v>11.35</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H25" s="4">
         <v>0.53</v>
@@ -3612,7 +3603,7 @@
         <v>4.85</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="4">
@@ -3628,21 +3619,21 @@
         <v>-0.43</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U25" s="13">
-        <v>0</v>
-      </c>
-      <c r="V25" s="14">
+        <v>25</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25" s="15">
+        <v>0</v>
+      </c>
+      <c r="V25" s="16">
         <v>1.79</v>
       </c>
       <c r="W25" s="2">
@@ -3660,7 +3651,7 @@
         <v>300531</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E26" s="4">
         <v>0.7</v>
@@ -3669,7 +3660,7 @@
         <v>21.44</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H26" s="4">
         <v>-2.8</v>
@@ -3681,7 +3672,7 @@
         <v>-0.42</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="4">
@@ -3697,21 +3688,21 @@
         <v>0.03</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U26" s="13">
-        <v>0</v>
-      </c>
-      <c r="V26" s="14">
+        <v>25</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U26" s="15">
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
         <v>2.33</v>
       </c>
       <c r="W26" s="2">
@@ -3729,7 +3720,7 @@
         <v>300533</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E27" s="4">
         <v>-2.72</v>
@@ -3738,7 +3729,7 @@
         <v>37.55</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="4">
         <v>-1.17</v>
@@ -3750,7 +3741,7 @@
         <v>1.15</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="4">
@@ -3766,21 +3757,21 @@
         <v>-1.66</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U27" s="13">
-        <v>0</v>
-      </c>
-      <c r="V27" s="14">
+        <v>25</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27" s="15">
+        <v>0</v>
+      </c>
+      <c r="V27" s="16">
         <v>2.29</v>
       </c>
       <c r="W27" s="2">
@@ -3798,7 +3789,7 @@
         <v>300537</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E28" s="4">
         <v>-4.51</v>
@@ -3807,7 +3798,7 @@
         <v>27.98</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H28" s="4">
         <v>-7.15</v>
@@ -3819,7 +3810,7 @@
         <v>-2.32</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L28" s="10"/>
       <c r="M28" s="4">
@@ -3835,21 +3826,21 @@
         <v>-0.9</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U28" s="13">
-        <v>0</v>
-      </c>
-      <c r="V28" s="14">
+        <v>25</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="16">
         <v>5.07</v>
       </c>
       <c r="W28" s="2">
@@ -3867,7 +3858,7 @@
         <v>300541</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E29" s="4">
         <v>3.74</v>
@@ -3876,7 +3867,7 @@
         <v>16.94</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H29" s="4">
         <v>-3.36</v>
@@ -3888,7 +3879,7 @@
         <v>-0.35</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="4">
@@ -3904,21 +3895,21 @@
         <v>0.34</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U29" s="13">
-        <v>0</v>
-      </c>
-      <c r="V29" s="14">
+        <v>25</v>
+      </c>
+      <c r="R29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U29" s="15">
+        <v>0</v>
+      </c>
+      <c r="V29" s="16">
         <v>2.51</v>
       </c>
       <c r="W29" s="2">
@@ -3936,7 +3927,7 @@
         <v>300548</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E30" s="4">
         <v>1.63</v>
@@ -3945,7 +3936,7 @@
         <v>76.22</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H30" s="4">
         <v>-1.27</v>
@@ -3957,7 +3948,7 @@
         <v>1.56</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L30" s="10"/>
       <c r="M30" s="4">
@@ -3973,21 +3964,21 @@
         <v>-0.94</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U30" s="13">
-        <v>0</v>
-      </c>
-      <c r="V30" s="14">
+        <v>25</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
+      <c r="V30" s="16">
         <v>4.78</v>
       </c>
       <c r="W30" s="2">
@@ -4005,7 +3996,7 @@
         <v>300581</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E31" s="4">
         <v>3.93</v>
@@ -4014,7 +4005,7 @@
         <v>20.36</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H31" s="4">
         <v>-6.24</v>
@@ -4026,7 +4017,7 @@
         <v>-3.05</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="4">
@@ -4042,21 +4033,21 @@
         <v>0.09</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U31" s="13">
-        <v>0</v>
-      </c>
-      <c r="V31" s="14">
+        <v>25</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U31" s="15">
+        <v>0</v>
+      </c>
+      <c r="V31" s="16">
         <v>0.3</v>
       </c>
       <c r="W31" s="2">
@@ -4074,7 +4065,7 @@
         <v>300591</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E32" s="4">
         <v>-5.13</v>
@@ -4083,7 +4074,7 @@
         <v>11.29</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H32" s="4">
         <v>2.57</v>
@@ -4095,7 +4086,7 @@
         <v>5.93</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L32" s="10"/>
       <c r="M32" s="4">
@@ -4111,21 +4102,21 @@
         <v>-0.44</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T32" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U32" s="13">
-        <v>0</v>
-      </c>
-      <c r="V32" s="14">
+        <v>25</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U32" s="15">
+        <v>0</v>
+      </c>
+      <c r="V32" s="16">
         <v>3.41</v>
       </c>
       <c r="W32" s="2">
@@ -4143,7 +4134,7 @@
         <v>300600</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E33" s="4">
         <v>20.01</v>
@@ -4152,7 +4143,7 @@
         <v>16.73</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H33" s="4">
         <v>-2.75</v>
@@ -4164,7 +4155,7 @@
         <v>5.5</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="4">
@@ -4180,24 +4171,24 @@
         <v>6.97</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T33" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U33" s="16">
+        <v>25</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U33" s="18">
         <v>1</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V33" s="16">
         <v>14.42</v>
       </c>
-      <c r="W33" s="17">
+      <c r="W33" s="19">
         <v>1</v>
       </c>
     </row>
@@ -4212,7 +4203,7 @@
         <v>300645</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E34" s="4">
         <v>1.18</v>
@@ -4221,7 +4212,7 @@
         <v>20.61</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H34" s="4">
         <v>-4.17</v>
@@ -4233,7 +4224,7 @@
         <v>-0.53</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L34" s="10"/>
       <c r="M34" s="4">
@@ -4249,21 +4240,21 @@
         <v>0.41</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U34" s="13">
-        <v>0</v>
-      </c>
-      <c r="V34" s="14">
+        <v>25</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U34" s="15">
+        <v>0</v>
+      </c>
+      <c r="V34" s="16">
         <v>4.47</v>
       </c>
       <c r="W34" s="2">
@@ -4281,7 +4272,7 @@
         <v>300649</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E35" s="4">
         <v>-3.23</v>
@@ -4290,7 +4281,7 @@
         <v>19.5</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H35" s="4">
         <v>-2.62</v>
@@ -4302,7 +4293,7 @@
         <v>0.67</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="4">
@@ -4318,21 +4309,21 @@
         <v>-1.7</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U35" s="13">
-        <v>0</v>
-      </c>
-      <c r="V35" s="14">
+        <v>25</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="16">
         <v>3.22</v>
       </c>
       <c r="W35" s="2">
@@ -4350,7 +4341,7 @@
         <v>300697</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E36" s="4">
         <v>3.04</v>
@@ -4359,7 +4350,7 @@
         <v>14.93</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H36" s="4">
         <v>-1.94</v>
@@ -4371,7 +4362,7 @@
         <v>0.87</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L36" s="10"/>
       <c r="M36" s="4">
@@ -4387,21 +4378,21 @@
         <v>0.39</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U36" s="13">
-        <v>0</v>
-      </c>
-      <c r="V36" s="14">
+        <v>25</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U36" s="15">
+        <v>0</v>
+      </c>
+      <c r="V36" s="16">
         <v>5.5</v>
       </c>
       <c r="W36" s="2">
@@ -4419,7 +4410,7 @@
         <v>300700</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E37" s="4">
         <v>-1.33</v>
@@ -4428,7 +4419,7 @@
         <v>12.65</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H37" s="4">
         <v>-6.25</v>
@@ -4440,7 +4431,7 @@
         <v>2.69</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="4">
@@ -4456,21 +4447,21 @@
         <v>0.38</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T37" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U37" s="13">
-        <v>0</v>
-      </c>
-      <c r="V37" s="14">
+        <v>25</v>
+      </c>
+      <c r="R37" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="16">
         <v>7.28</v>
       </c>
       <c r="W37" s="2">
@@ -4488,7 +4479,7 @@
         <v>300703</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E38" s="4">
         <v>4.95</v>
@@ -4497,7 +4488,7 @@
         <v>25.02</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H38" s="4">
         <v>-0.08</v>
@@ -4509,7 +4500,7 @@
         <v>7.83</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="4">
@@ -4525,21 +4516,21 @@
         <v>0.73</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T38" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U38" s="13">
-        <v>0</v>
-      </c>
-      <c r="V38" s="14">
+        <v>25</v>
+      </c>
+      <c r="R38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U38" s="15">
+        <v>0</v>
+      </c>
+      <c r="V38" s="16">
         <v>0.4</v>
       </c>
       <c r="W38" s="2">
@@ -4557,7 +4548,7 @@
         <v>300748</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E39" s="4">
         <v>8.03</v>
@@ -4566,7 +4557,7 @@
         <v>25.95</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H39" s="4">
         <v>0.19</v>
@@ -4578,7 +4569,7 @@
         <v>5.7</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="4">
@@ -4594,21 +4585,21 @@
         <v>0.21</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R39" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T39" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U39" s="13">
-        <v>0</v>
-      </c>
-      <c r="V39" s="14">
+        <v>25</v>
+      </c>
+      <c r="R39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U39" s="15">
+        <v>0</v>
+      </c>
+      <c r="V39" s="16">
         <v>0.87</v>
       </c>
       <c r="W39" s="2">
@@ -4626,7 +4617,7 @@
         <v>300753</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E40" s="4">
         <v>-1.72</v>
@@ -4635,7 +4626,7 @@
         <v>30.81</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H40" s="6">
         <v>0</v>
@@ -4647,7 +4638,7 @@
         <v>0.39</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L40" s="10"/>
       <c r="M40" s="4">
@@ -4663,21 +4654,21 @@
         <v>-0.62</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U40" s="13">
-        <v>0</v>
-      </c>
-      <c r="V40" s="14">
+        <v>25</v>
+      </c>
+      <c r="R40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U40" s="15">
+        <v>0</v>
+      </c>
+      <c r="V40" s="16">
         <v>0.93</v>
       </c>
       <c r="W40" s="2">
@@ -4695,7 +4686,7 @@
         <v>300773</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E41" s="4">
         <v>1.1</v>
@@ -4704,7 +4695,7 @@
         <v>29.51</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H41" s="4">
         <v>-3.22</v>
@@ -4716,7 +4707,7 @@
         <v>-1.36</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="4">
@@ -4732,21 +4723,21 @@
         <v>-0.14</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U41" s="16">
+        <v>25</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T41" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U41" s="18">
         <v>1</v>
       </c>
-      <c r="V41" s="14">
+      <c r="V41" s="16">
         <v>8.58</v>
       </c>
       <c r="W41" s="2">
@@ -4764,7 +4755,7 @@
         <v>300778</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E42" s="4">
         <v>-12.93</v>
@@ -4773,7 +4764,7 @@
         <v>18.66</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H42" s="4">
         <v>0.11</v>
@@ -4785,7 +4776,7 @@
         <v>5.36</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="4">
@@ -4801,21 +4792,21 @@
         <v>-1.22</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T42" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U42" s="13">
-        <v>0</v>
-      </c>
-      <c r="V42" s="14">
+        <v>25</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U42" s="15">
+        <v>0</v>
+      </c>
+      <c r="V42" s="16">
         <v>2.65</v>
       </c>
       <c r="W42" s="2">
@@ -4833,7 +4824,7 @@
         <v>300803</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E43" s="4">
         <v>13.06</v>
@@ -4842,7 +4833,7 @@
         <v>88.9</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H43" s="4">
         <v>-7.57</v>
@@ -4854,7 +4845,7 @@
         <v>-1.36</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="4">
@@ -4870,21 +4861,21 @@
         <v>0.59</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T43" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U43" s="13">
-        <v>0</v>
-      </c>
-      <c r="V43" s="14">
+        <v>25</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S43" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T43" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="16">
         <v>1.38</v>
       </c>
       <c r="W43" s="2">
@@ -4902,7 +4893,7 @@
         <v>300821</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E44" s="4">
         <v>-3.56</v>
@@ -4911,7 +4902,7 @@
         <v>10.28</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H44" s="4">
         <v>0.68</v>
@@ -4923,7 +4914,7 @@
         <v>2.24</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="4">
@@ -4939,21 +4930,21 @@
         <v>-0.47</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U44" s="13">
-        <v>0</v>
-      </c>
-      <c r="V44" s="14">
+        <v>25</v>
+      </c>
+      <c r="R44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U44" s="15">
+        <v>0</v>
+      </c>
+      <c r="V44" s="16">
         <v>2.88</v>
       </c>
       <c r="W44" s="2">
@@ -4971,7 +4962,7 @@
         <v>300847</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E45" s="4">
         <v>-0.23</v>
@@ -4980,7 +4971,7 @@
         <v>21.45</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H45" s="4">
         <v>-4.34</v>
@@ -4992,7 +4983,7 @@
         <v>-1.26</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="4">
@@ -5008,21 +4999,21 @@
         <v>-0.88</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U45" s="13">
-        <v>0</v>
-      </c>
-      <c r="V45" s="14">
+        <v>25</v>
+      </c>
+      <c r="R45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="16">
         <v>5.62</v>
       </c>
       <c r="W45" s="2">
@@ -5040,7 +5031,7 @@
         <v>300872</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E46" s="4">
         <v>-0.75</v>
@@ -5049,7 +5040,7 @@
         <v>25.01</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H46" s="4">
         <v>1.08</v>
@@ -5061,7 +5052,7 @@
         <v>2.16</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="4">
@@ -5077,21 +5068,21 @@
         <v>0.78</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R46" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S46" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T46" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U46" s="13">
-        <v>0</v>
-      </c>
-      <c r="V46" s="14">
+        <v>25</v>
+      </c>
+      <c r="R46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U46" s="15">
+        <v>0</v>
+      </c>
+      <c r="V46" s="16">
         <v>2.16</v>
       </c>
       <c r="W46" s="2">
@@ -5109,7 +5100,7 @@
         <v>300903</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E47" s="4">
         <v>-1.77</v>
@@ -5118,7 +5109,7 @@
         <v>10.54</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H47" s="4">
         <v>0.19</v>
@@ -5130,7 +5121,7 @@
         <v>1.33</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="4">
@@ -5146,21 +5137,21 @@
         <v>-0.5</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U47" s="13">
-        <v>0</v>
-      </c>
-      <c r="V47" s="14">
+        <v>25</v>
+      </c>
+      <c r="R47" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T47" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="16">
         <v>0.95</v>
       </c>
       <c r="W47" s="2">
@@ -5178,7 +5169,7 @@
         <v>300930</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E48" s="4">
         <v>1.57</v>
@@ -5187,7 +5178,7 @@
         <v>33.09</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H48" s="4">
         <v>-4.02</v>
@@ -5199,7 +5190,7 @@
         <v>-0.27</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L48" s="10"/>
       <c r="M48" s="4">
@@ -5215,21 +5206,21 @@
         <v>-0.15</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U48" s="13">
-        <v>0</v>
-      </c>
-      <c r="V48" s="14">
+        <v>25</v>
+      </c>
+      <c r="R48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U48" s="15">
+        <v>0</v>
+      </c>
+      <c r="V48" s="16">
         <v>2.93</v>
       </c>
       <c r="W48" s="2">
@@ -5247,7 +5238,7 @@
         <v>300947</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E49" s="4">
         <v>-3.31</v>
@@ -5256,7 +5247,7 @@
         <v>26.6</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H49" s="4">
         <v>-3.08</v>
@@ -5268,7 +5259,7 @@
         <v>-0.41</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="4">
@@ -5284,21 +5275,21 @@
         <v>-1.81</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U49" s="13">
-        <v>0</v>
-      </c>
-      <c r="V49" s="14">
+        <v>25</v>
+      </c>
+      <c r="R49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="16">
         <v>3.66</v>
       </c>
       <c r="W49" s="2">
@@ -5316,7 +5307,7 @@
         <v>300982</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E50" s="4">
         <v>-3.54</v>
@@ -5325,7 +5316,7 @@
         <v>21.26</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H50" s="4">
         <v>2.4</v>
@@ -5337,7 +5328,7 @@
         <v>5.74</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="4">
@@ -5353,21 +5344,21 @@
         <v>-0.38</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T50" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U50" s="13">
-        <v>0</v>
-      </c>
-      <c r="V50" s="14">
+        <v>25</v>
+      </c>
+      <c r="R50" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S50" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T50" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U50" s="15">
+        <v>0</v>
+      </c>
+      <c r="V50" s="16">
         <v>1.81</v>
       </c>
       <c r="W50" s="2">
@@ -5385,7 +5376,7 @@
         <v>300987</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E51" s="4">
         <v>-2.08</v>
@@ -5394,7 +5385,7 @@
         <v>19.78</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H51" s="4">
         <v>-3.79</v>
@@ -5406,7 +5397,7 @@
         <v>-0.51</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="4">
@@ -5422,21 +5413,21 @@
         <v>-0.75</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U51" s="13">
-        <v>0</v>
-      </c>
-      <c r="V51" s="14">
+        <v>25</v>
+      </c>
+      <c r="R51" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S51" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T51" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U51" s="15">
+        <v>0</v>
+      </c>
+      <c r="V51" s="16">
         <v>1.31</v>
       </c>
       <c r="W51" s="2">
@@ -5454,7 +5445,7 @@
         <v>300991</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E52" s="4">
         <v>-7.49</v>
@@ -5463,7 +5454,7 @@
         <v>29.77</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H52" s="4">
         <v>0.84</v>
@@ -5475,7 +5466,7 @@
         <v>3.73</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="4">
@@ -5491,21 +5482,21 @@
         <v>-0.49</v>
       </c>
       <c r="Q52" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U52" s="13">
-        <v>0</v>
-      </c>
-      <c r="V52" s="14">
+        <v>25</v>
+      </c>
+      <c r="R52" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S52" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T52" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U52" s="15">
+        <v>0</v>
+      </c>
+      <c r="V52" s="16">
         <v>2.43</v>
       </c>
       <c r="W52" s="2">
@@ -5523,7 +5514,7 @@
         <v>301024</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E53" s="4">
         <v>-5.51</v>
@@ -5532,7 +5523,7 @@
         <v>53.48</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H53" s="4">
         <v>-3.61</v>
@@ -5544,7 +5535,7 @@
         <v>-2.3</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="4">
@@ -5560,21 +5551,21 @@
         <v>-0.76</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U53" s="16">
+        <v>25</v>
+      </c>
+      <c r="R53" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S53" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U53" s="18">
         <v>1</v>
       </c>
-      <c r="V53" s="14">
+      <c r="V53" s="16">
         <v>4.72</v>
       </c>
       <c r="W53" s="2">
@@ -5592,7 +5583,7 @@
         <v>301120</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E54" s="4">
         <v>-8.5</v>
@@ -5601,7 +5592,7 @@
         <v>13.03</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H54" s="4">
         <v>6.29</v>
@@ -5613,7 +5604,7 @@
         <v>8.29</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="4">
@@ -5629,21 +5620,21 @@
         <v>-1.72</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R54" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S54" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T54" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U54" s="13">
-        <v>0</v>
-      </c>
-      <c r="V54" s="14">
+        <v>25</v>
+      </c>
+      <c r="R54" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S54" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T54" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U54" s="15">
+        <v>0</v>
+      </c>
+      <c r="V54" s="16">
         <v>0.69</v>
       </c>
       <c r="W54" s="2">
@@ -5661,7 +5652,7 @@
         <v>301132</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E55" s="4">
         <v>-1.16</v>
@@ -5670,7 +5661,7 @@
         <v>34.12</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H55" s="4">
         <v>0.94</v>
@@ -5682,7 +5673,7 @@
         <v>1.41</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="4">
@@ -5698,21 +5689,21 @@
         <v>-1.64</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U55" s="13">
-        <v>0</v>
-      </c>
-      <c r="V55" s="14">
+        <v>25</v>
+      </c>
+      <c r="R55" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S55" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T55" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="16">
         <v>10.3</v>
       </c>
       <c r="W55" s="2">
@@ -5730,7 +5721,7 @@
         <v>301141</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E56" s="4">
         <v>14.77</v>
@@ -5739,7 +5730,7 @@
         <v>74.66</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H56" s="4">
         <v>-5.1</v>
@@ -5751,7 +5742,7 @@
         <v>3.5</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="4">
@@ -5767,21 +5758,21 @@
         <v>-0.13</v>
       </c>
       <c r="Q56" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U56" s="16">
+        <v>25</v>
+      </c>
+      <c r="R56" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S56" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T56" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U56" s="18">
         <v>1</v>
       </c>
-      <c r="V56" s="14">
+      <c r="V56" s="16">
         <v>6.58</v>
       </c>
       <c r="W56" s="2">
@@ -5799,7 +5790,7 @@
         <v>301150</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E57" s="4">
         <v>-2.96</v>
@@ -5808,7 +5799,7 @@
         <v>22.98</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H57" s="4">
         <v>-0.57</v>
@@ -5820,7 +5811,7 @@
         <v>2.48</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="4">
@@ -5836,21 +5827,21 @@
         <v>-0.66</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U57" s="16">
+        <v>25</v>
+      </c>
+      <c r="R57" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S57" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T57" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U57" s="18">
         <v>1</v>
       </c>
-      <c r="V57" s="14">
+      <c r="V57" s="16">
         <v>5.5</v>
       </c>
       <c r="W57" s="2">
@@ -5868,7 +5859,7 @@
         <v>301165</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E58" s="4">
         <v>2</v>
@@ -5877,7 +5868,7 @@
         <v>60.75</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H58" s="4">
         <v>-2.53</v>
@@ -5889,7 +5880,7 @@
         <v>6.12</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L58" s="10"/>
       <c r="M58" s="4">
@@ -5905,21 +5896,21 @@
         <v>0.31</v>
       </c>
       <c r="Q58" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T58" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U58" s="13">
-        <v>0</v>
-      </c>
-      <c r="V58" s="14">
+        <v>25</v>
+      </c>
+      <c r="R58" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S58" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T58" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U58" s="15">
+        <v>0</v>
+      </c>
+      <c r="V58" s="16">
         <v>3.63</v>
       </c>
       <c r="W58" s="2">
@@ -5937,7 +5928,7 @@
         <v>301176</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E59" s="4">
         <v>-6.07</v>
@@ -5946,7 +5937,7 @@
         <v>34.52</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H59" s="4">
         <v>8.05</v>
@@ -5958,7 +5949,7 @@
         <v>9.41</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="4">
@@ -5974,21 +5965,21 @@
         <v>-0.84</v>
       </c>
       <c r="Q59" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T59" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U59" s="13">
-        <v>0</v>
-      </c>
-      <c r="V59" s="14">
+        <v>25</v>
+      </c>
+      <c r="R59" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S59" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T59" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U59" s="15">
+        <v>0</v>
+      </c>
+      <c r="V59" s="16">
         <v>1.95</v>
       </c>
       <c r="W59" s="2">
@@ -6006,7 +5997,7 @@
         <v>301178</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E60" s="4">
         <v>1.12</v>
@@ -6015,7 +6006,7 @@
         <v>57.95</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H60" s="4">
         <v>-2.4</v>
@@ -6027,7 +6018,7 @@
         <v>0.12</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="4">
@@ -6043,21 +6034,21 @@
         <v>-0.82</v>
       </c>
       <c r="Q60" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U60" s="16">
+        <v>25</v>
+      </c>
+      <c r="R60" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S60" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T60" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U60" s="18">
         <v>1</v>
       </c>
-      <c r="V60" s="14">
+      <c r="V60" s="16">
         <v>6.62</v>
       </c>
       <c r="W60" s="2">
@@ -6075,7 +6066,7 @@
         <v>301197</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E61" s="4">
         <v>4.37</v>
@@ -6084,7 +6075,7 @@
         <v>23.42</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H61" s="4">
         <v>-5.64</v>
@@ -6096,7 +6087,7 @@
         <v>-1.54</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L61" s="10"/>
       <c r="M61" s="4">
@@ -6112,21 +6103,21 @@
         <v>-0.22</v>
       </c>
       <c r="Q61" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R61" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S61" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T61" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U61" s="13">
-        <v>0</v>
-      </c>
-      <c r="V61" s="14">
+        <v>25</v>
+      </c>
+      <c r="R61" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S61" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T61" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U61" s="15">
+        <v>0</v>
+      </c>
+      <c r="V61" s="16">
         <v>0.53</v>
       </c>
       <c r="W61" s="2">
@@ -6144,7 +6135,7 @@
         <v>301208</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E62" s="4">
         <v>6.46</v>
@@ -6153,7 +6144,7 @@
         <v>51.38</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H62" s="4">
         <v>-4.26</v>
@@ -6165,7 +6156,7 @@
         <v>-1.46</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L62" s="10"/>
       <c r="M62" s="4">
@@ -6181,21 +6172,21 @@
         <v>0.85</v>
       </c>
       <c r="Q62" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R62" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S62" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T62" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U62" s="13">
-        <v>0</v>
-      </c>
-      <c r="V62" s="14">
+        <v>25</v>
+      </c>
+      <c r="R62" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S62" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T62" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U62" s="15">
+        <v>0</v>
+      </c>
+      <c r="V62" s="16">
         <v>3.95</v>
       </c>
       <c r="W62" s="2">
@@ -6213,7 +6204,7 @@
         <v>301217</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E63" s="4">
         <v>-0.16</v>
@@ -6222,7 +6213,7 @@
         <v>19.23</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H63" s="4">
         <v>4.52</v>
@@ -6234,7 +6225,7 @@
         <v>11.28</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="4">
@@ -6250,21 +6241,21 @@
         <v>-0.9</v>
       </c>
       <c r="Q63" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R63" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S63" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T63" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U63" s="13">
-        <v>0</v>
-      </c>
-      <c r="V63" s="14">
+        <v>25</v>
+      </c>
+      <c r="R63" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S63" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T63" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U63" s="15">
+        <v>0</v>
+      </c>
+      <c r="V63" s="16">
         <v>0.68</v>
       </c>
       <c r="W63" s="2">
@@ -6282,7 +6273,7 @@
         <v>301257</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E64" s="4">
         <v>0.3</v>
@@ -6291,7 +6282,7 @@
         <v>36.62</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H64" s="4">
         <v>0.76</v>
@@ -6303,7 +6294,7 @@
         <v>1.75</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L64" s="10"/>
       <c r="M64" s="4">
@@ -6319,21 +6310,21 @@
         <v>0.93</v>
       </c>
       <c r="Q64" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R64" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S64" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T64" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U64" s="13">
-        <v>0</v>
-      </c>
-      <c r="V64" s="14">
+        <v>25</v>
+      </c>
+      <c r="R64" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S64" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T64" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U64" s="15">
+        <v>0</v>
+      </c>
+      <c r="V64" s="16">
         <v>2.4</v>
       </c>
       <c r="W64" s="2">
@@ -6351,7 +6342,7 @@
         <v>301306</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E65" s="4">
         <v>0.43</v>
@@ -6360,7 +6351,7 @@
         <v>51.22</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H65" s="4">
         <v>0.18</v>
@@ -6372,7 +6363,7 @@
         <v>0.55</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L65" s="10"/>
       <c r="M65" s="4">
@@ -6388,21 +6379,21 @@
         <v>0.42</v>
       </c>
       <c r="Q65" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S65" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T65" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U65" s="16">
+        <v>25</v>
+      </c>
+      <c r="R65" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S65" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T65" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U65" s="18">
         <v>1</v>
       </c>
-      <c r="V65" s="14">
+      <c r="V65" s="16">
         <v>6.68</v>
       </c>
       <c r="W65" s="2">
@@ -6420,7 +6411,7 @@
         <v>301311</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E66" s="4">
         <v>7.37</v>
@@ -6429,7 +6420,7 @@
         <v>22.74</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H66" s="4">
         <v>-2.15</v>
@@ -6441,7 +6432,7 @@
         <v>0.44</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L66" s="10"/>
       <c r="M66" s="4">
@@ -6457,24 +6448,24 @@
         <v>2.61</v>
       </c>
       <c r="Q66" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R66" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S66" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T66" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U66" s="16">
+        <v>25</v>
+      </c>
+      <c r="R66" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S66" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T66" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U66" s="18">
         <v>1</v>
       </c>
-      <c r="V66" s="14">
+      <c r="V66" s="16">
         <v>4</v>
       </c>
-      <c r="W66" s="17">
+      <c r="W66" s="19">
         <v>1</v>
       </c>
     </row>
@@ -6489,7 +6480,7 @@
         <v>301345</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E67" s="4">
         <v>-2.61</v>
@@ -6498,7 +6489,7 @@
         <v>139.66</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H67" s="4">
         <v>5.25</v>
@@ -6510,7 +6501,7 @@
         <v>5.64</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L67" s="10"/>
       <c r="M67" s="4">
@@ -6526,21 +6517,21 @@
         <v>-0.61</v>
       </c>
       <c r="Q67" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S67" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T67" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U67" s="13">
-        <v>0</v>
-      </c>
-      <c r="V67" s="14">
+        <v>25</v>
+      </c>
+      <c r="R67" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S67" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T67" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U67" s="15">
+        <v>0</v>
+      </c>
+      <c r="V67" s="16">
         <v>2.09</v>
       </c>
       <c r="W67" s="2">
@@ -6558,7 +6549,7 @@
         <v>301388</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E68" s="4">
         <v>-1.9</v>
@@ -6567,7 +6558,7 @@
         <v>35.11</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H68" s="4">
         <v>19.99</v>
@@ -6579,7 +6570,7 @@
         <v>19.99</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L68" s="10"/>
       <c r="M68" s="4">
@@ -6595,21 +6586,21 @@
         <v>-1.9</v>
       </c>
       <c r="Q68" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R68" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S68" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T68" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U68" s="13">
-        <v>0</v>
-      </c>
-      <c r="V68" s="14">
+        <v>25</v>
+      </c>
+      <c r="R68" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S68" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T68" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U68" s="15">
+        <v>0</v>
+      </c>
+      <c r="V68" s="16">
         <v>5.23</v>
       </c>
       <c r="W68" s="2">
@@ -6627,7 +6618,7 @@
         <v>301389</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E69" s="4">
         <v>-2.31</v>
@@ -6636,7 +6627,7 @@
         <v>33.35</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H69" s="4">
         <v>-1.05</v>
@@ -6648,7 +6639,7 @@
         <v>3.75</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L69" s="10"/>
       <c r="M69" s="4">
@@ -6664,21 +6655,21 @@
         <v>-3.27</v>
       </c>
       <c r="Q69" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U69" s="13">
-        <v>0</v>
-      </c>
-      <c r="V69" s="14">
+        <v>25</v>
+      </c>
+      <c r="R69" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S69" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T69" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U69" s="15">
+        <v>0</v>
+      </c>
+      <c r="V69" s="16">
         <v>1.43</v>
       </c>
       <c r="W69" s="2">
@@ -6696,7 +6687,7 @@
         <v>301421</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E70" s="4">
         <v>2.79</v>
@@ -6705,7 +6696,7 @@
         <v>72.11</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H70" s="4">
         <v>1.66</v>
@@ -6717,7 +6708,7 @@
         <v>2.72</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L70" s="10"/>
       <c r="M70" s="4">
@@ -6733,21 +6724,21 @@
         <v>1.58</v>
       </c>
       <c r="Q70" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R70" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S70" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T70" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U70" s="13">
-        <v>0</v>
-      </c>
-      <c r="V70" s="14">
+        <v>25</v>
+      </c>
+      <c r="R70" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S70" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T70" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U70" s="15">
+        <v>0</v>
+      </c>
+      <c r="V70" s="16">
         <v>1.89</v>
       </c>
       <c r="W70" s="2">
@@ -6765,7 +6756,7 @@
         <v>301511</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E71" s="4">
         <v>-2.61</v>
@@ -6774,7 +6765,7 @@
         <v>24.6</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H71" s="4">
         <v>-0.41</v>
@@ -6786,7 +6777,7 @@
         <v>2.56</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L71" s="10"/>
       <c r="M71" s="4">
@@ -6802,21 +6793,21 @@
         <v>-1.61</v>
       </c>
       <c r="Q71" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R71" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S71" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T71" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U71" s="13">
-        <v>0</v>
-      </c>
-      <c r="V71" s="14">
+        <v>25</v>
+      </c>
+      <c r="R71" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S71" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T71" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U71" s="15">
+        <v>0</v>
+      </c>
+      <c r="V71" s="16">
         <v>1.79</v>
       </c>
       <c r="W71" s="2">
@@ -6834,7 +6825,7 @@
         <v>301526</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E72" s="4">
         <v>-9.09</v>
@@ -6843,7 +6834,7 @@
         <v>5</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H72" s="4">
         <v>-2.4</v>
@@ -6855,7 +6846,7 @@
         <v>1.4</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L72" s="10"/>
       <c r="M72" s="4">
@@ -6871,21 +6862,21 @@
         <v>-1.25</v>
       </c>
       <c r="Q72" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R72" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S72" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T72" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U72" s="13">
-        <v>0</v>
-      </c>
-      <c r="V72" s="14">
+        <v>25</v>
+      </c>
+      <c r="R72" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S72" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T72" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U72" s="15">
+        <v>0</v>
+      </c>
+      <c r="V72" s="16">
         <v>1.78</v>
       </c>
       <c r="W72" s="2">
@@ -6903,7 +6894,7 @@
         <v>301622</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E73" s="4">
         <v>4.41</v>
@@ -6912,7 +6903,7 @@
         <v>88.78</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H73" s="4">
         <v>-2.88</v>
@@ -6924,7 +6915,7 @@
         <v>2.5</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L73" s="10"/>
       <c r="M73" s="4">
@@ -6940,21 +6931,21 @@
         <v>-0.89</v>
       </c>
       <c r="Q73" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R73" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S73" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T73" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U73" s="13">
-        <v>0</v>
-      </c>
-      <c r="V73" s="14">
+        <v>25</v>
+      </c>
+      <c r="R73" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S73" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T73" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U73" s="15">
+        <v>0</v>
+      </c>
+      <c r="V73" s="16">
         <v>3.78</v>
       </c>
       <c r="W73" s="2">
@@ -6972,7 +6963,7 @@
         <v>688062</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E74" s="4">
         <v>0.85</v>
@@ -6981,7 +6972,7 @@
         <v>32</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H74" s="4">
         <v>-2.56</v>
@@ -6993,7 +6984,7 @@
         <v>1.09</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L74" s="10"/>
       <c r="M74" s="4">
@@ -7009,21 +7000,21 @@
         <v>0.05</v>
       </c>
       <c r="Q74" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R74" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S74" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T74" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U74" s="13">
-        <v>0</v>
-      </c>
-      <c r="V74" s="14">
+        <v>25</v>
+      </c>
+      <c r="R74" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S74" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T74" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U74" s="15">
+        <v>0</v>
+      </c>
+      <c r="V74" s="16">
         <v>2.89</v>
       </c>
       <c r="W74" s="2">
@@ -7041,7 +7032,7 @@
         <v>688077</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E75" s="4">
         <v>8.36</v>
@@ -7050,7 +7041,7 @@
         <v>33.7</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H75" s="4">
         <v>-3.35</v>
@@ -7062,7 +7053,7 @@
         <v>3.5</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L75" s="10"/>
       <c r="M75" s="4">
@@ -7078,21 +7069,21 @@
         <v>0.15</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R75" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S75" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T75" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U75" s="13">
-        <v>0</v>
-      </c>
-      <c r="V75" s="14">
+        <v>25</v>
+      </c>
+      <c r="R75" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S75" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T75" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U75" s="15">
+        <v>0</v>
+      </c>
+      <c r="V75" s="16">
         <v>1.56</v>
       </c>
       <c r="W75" s="2">
@@ -7110,7 +7101,7 @@
         <v>688084</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E76" s="4">
         <v>4.58</v>
@@ -7119,7 +7110,7 @@
         <v>99.98</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H76" s="4">
         <v>-1.41</v>
@@ -7131,7 +7122,7 @@
         <v>4.58</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L76" s="10"/>
       <c r="M76" s="4">
@@ -7147,21 +7138,21 @@
         <v>0.24</v>
       </c>
       <c r="Q76" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R76" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S76" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T76" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U76" s="13">
-        <v>0</v>
-      </c>
-      <c r="V76" s="14">
+        <v>25</v>
+      </c>
+      <c r="R76" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S76" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T76" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U76" s="15">
+        <v>0</v>
+      </c>
+      <c r="V76" s="16">
         <v>3.59</v>
       </c>
       <c r="W76" s="2">
@@ -7179,7 +7170,7 @@
         <v>688117</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E77" s="4">
         <v>1.89</v>
@@ -7188,7 +7179,7 @@
         <v>35.09</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H77" s="4">
         <v>6.24</v>
@@ -7200,7 +7191,7 @@
         <v>9.23</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L77" s="10"/>
       <c r="M77" s="4">
@@ -7216,21 +7207,21 @@
         <v>0.18</v>
       </c>
       <c r="Q77" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R77" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S77" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T77" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U77" s="13">
-        <v>0</v>
-      </c>
-      <c r="V77" s="14">
+        <v>25</v>
+      </c>
+      <c r="R77" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S77" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T77" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="U77" s="15">
+        <v>0</v>
+      </c>
+      <c r="V77" s="16">
         <v>1.12</v>
       </c>
       <c r="W77" s="2">
@@ -7248,7 +7239,7 @@
         <v>688202</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E78" s="4">
         <v>7.22</v>
@@ -7257,7 +7248,7 @@
         <v>53.93</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H78" s="4">
         <v>-3.58</v>
@@ -7269,7 +7260,7 @@
         <v>-0.24</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L78" s="10"/>
       <c r="M78" s="4">
@@ -7285,21 +7276,21 @@
         <v>0.63</v>
       </c>
       <c r="Q78" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R78" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S78" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T78" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U78" s="13">
-        <v>0</v>
-      </c>
-      <c r="V78" s="14">
+        <v>25</v>
+      </c>
+      <c r="R78" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S78" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T78" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U78" s="15">
+        <v>0</v>
+      </c>
+      <c r="V78" s="16">
         <v>0.66</v>
       </c>
       <c r="W78" s="2">
@@ -7317,7 +7308,7 @@
         <v>688221</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E79" s="4">
         <v>12.66</v>
@@ -7326,7 +7317,7 @@
         <v>18.16</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H79" s="4">
         <v>2.97</v>
@@ -7338,7 +7329,7 @@
         <v>3.63</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L79" s="10"/>
       <c r="M79" s="4">
@@ -7354,21 +7345,21 @@
         <v>-0.86</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R79" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S79" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T79" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U79" s="13">
-        <v>0</v>
-      </c>
-      <c r="V79" s="14">
+        <v>25</v>
+      </c>
+      <c r="R79" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S79" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T79" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U79" s="15">
+        <v>0</v>
+      </c>
+      <c r="V79" s="16">
         <v>-0.01</v>
       </c>
       <c r="W79" s="2">
@@ -7386,7 +7377,7 @@
         <v>688313</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E80" s="4">
         <v>14.85</v>
@@ -7395,7 +7386,7 @@
         <v>43.7</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H80" s="4">
         <v>-1.9</v>
@@ -7407,7 +7398,7 @@
         <v>-0.8</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L80" s="10"/>
       <c r="M80" s="4">
@@ -7423,21 +7414,21 @@
         <v>0.62</v>
       </c>
       <c r="Q80" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R80" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S80" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T80" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U80" s="13">
-        <v>0</v>
-      </c>
-      <c r="V80" s="14">
+        <v>25</v>
+      </c>
+      <c r="R80" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S80" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T80" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U80" s="15">
+        <v>0</v>
+      </c>
+      <c r="V80" s="16">
         <v>1.92</v>
       </c>
       <c r="W80" s="2">
@@ -7455,7 +7446,7 @@
         <v>688321</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E81" s="4">
         <v>3.46</v>
@@ -7464,7 +7455,7 @@
         <v>33.8</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H81" s="4">
         <v>0.53</v>
@@ -7476,7 +7467,7 @@
         <v>2.07</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L81" s="10"/>
       <c r="M81" s="4">
@@ -7492,21 +7483,21 @@
         <v>0.21</v>
       </c>
       <c r="Q81" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R81" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S81" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T81" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U81" s="13">
-        <v>0</v>
-      </c>
-      <c r="V81" s="14">
+        <v>25</v>
+      </c>
+      <c r="R81" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S81" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T81" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U81" s="15">
+        <v>0</v>
+      </c>
+      <c r="V81" s="16">
         <v>-1.59</v>
       </c>
       <c r="W81" s="2">
@@ -7524,7 +7515,7 @@
         <v>688553</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E82" s="4">
         <v>-1.28</v>
@@ -7533,7 +7524,7 @@
         <v>20.07</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H82" s="4">
         <v>-1.69</v>
@@ -7545,7 +7536,7 @@
         <v>0.35</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L82" s="10"/>
       <c r="M82" s="4">
@@ -7561,21 +7552,21 @@
         <v>-0.37</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R82" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S82" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T82" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U82" s="13">
-        <v>0</v>
-      </c>
-      <c r="V82" s="14">
+        <v>25</v>
+      </c>
+      <c r="R82" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S82" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T82" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U82" s="15">
+        <v>0</v>
+      </c>
+      <c r="V82" s="16">
         <v>5.69</v>
       </c>
       <c r="W82" s="2">
@@ -7593,7 +7584,7 @@
         <v>688717</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E83" s="4">
         <v>-3.92</v>
@@ -7602,7 +7593,7 @@
         <v>64</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H83" s="4">
         <v>2</v>
@@ -7614,7 +7605,7 @@
         <v>4.02</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L83" s="10"/>
       <c r="M83" s="4">
@@ -7630,21 +7621,21 @@
         <v>-0.42</v>
       </c>
       <c r="Q83" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R83" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S83" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T83" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U83" s="13">
-        <v>0</v>
-      </c>
-      <c r="V83" s="14">
+        <v>25</v>
+      </c>
+      <c r="R83" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S83" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T83" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U83" s="15">
+        <v>0</v>
+      </c>
+      <c r="V83" s="16">
         <v>4.68</v>
       </c>
       <c r="W83" s="2">
@@ -7662,7 +7653,7 @@
         <v>688799</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E84" s="6">
         <v>0</v>
@@ -7671,7 +7662,7 @@
         <v>57.99</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H84" s="4">
         <v>-7.23</v>
@@ -7683,7 +7674,7 @@
         <v>0.71</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L84" s="10"/>
       <c r="M84" s="4">
@@ -7699,21 +7690,21 @@
         <v>0.34</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R84" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S84" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T84" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U84" s="13">
-        <v>0</v>
-      </c>
-      <c r="V84" s="14">
+        <v>25</v>
+      </c>
+      <c r="R84" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S84" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T84" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U84" s="15">
+        <v>0</v>
+      </c>
+      <c r="V84" s="16">
         <v>2.21</v>
       </c>
       <c r="W84" s="2">
@@ -7721,124 +7712,124 @@
       </c>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="26"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="17"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="26"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="21"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="27"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="14"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="27"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="14"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="27"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="14"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="25"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="26"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="11"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
